--- a/blank_files/HISTORIAS CLINICAS EN BLANCO.xlsx
+++ b/blank_files/HISTORIAS CLINICAS EN BLANCO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colan\OneDrive\Escritorio\BRUNO\Sistema CAI_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Archivos en blanco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D50FD56-CEA0-4210-87CC-BD024FF5E274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MMSS 1" sheetId="1" r:id="rId1"/>
@@ -21,14 +20,14 @@
     <sheet name="VALORES Y EXP" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">MANO!$A$1:$N$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">MANO!$A$1:$N$73</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">MANO2!$A$1:$P$64</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">MMII!$A$1:$R$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'MMSS 1'!$A$1:$M$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">MMII!$A$1:$R$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'MMSS 1'!$A$1:$M$68</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'MMSS y MMII'!$A$1:$P$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'VALORES Y EXP'!$A$1:$K$71</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -954,7 +953,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3076,6 +3075,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3094,6 +3094,18 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3136,18 +3148,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3167,6 +3167,105 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3190,103 +3289,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3298,12 +3304,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3313,7 +3313,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3492,13 +3491,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3551,13 +3550,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3595,13 +3594,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3639,13 +3638,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3698,13 +3697,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3742,13 +3741,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4977,41 +4976,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.26953125" customWidth="1"/>
-    <col min="2" max="2" width="8.26953125" customWidth="1"/>
-    <col min="3" max="4" width="6.26953125" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" customWidth="1"/>
-    <col min="6" max="7" width="6.26953125" customWidth="1"/>
-    <col min="8" max="8" width="7.7265625" customWidth="1"/>
-    <col min="9" max="9" width="5.81640625" customWidth="1"/>
-    <col min="10" max="10" width="6.26953125" customWidth="1"/>
-    <col min="11" max="11" width="8.26953125" customWidth="1"/>
-    <col min="12" max="13" width="6.26953125" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="7" width="6.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="13" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="24.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:18" ht="24.75" x14ac:dyDescent="0.5">
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="D4" s="2" t="s">
         <v>2</v>
@@ -5024,13 +5023,13 @@
       <c r="L4" s="399"/>
       <c r="M4" s="399"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5046,1238 +5045,1228 @@
       <c r="M6" s="3"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O10" s="396"/>
     </row>
-    <row r="11" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R12" s="329"/>
     </row>
-    <row r="13" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="403" t="s">
+    <row r="13" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R13" s="404"/>
+    </row>
+    <row r="14" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R14" s="404"/>
+    </row>
+    <row r="15" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="403" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="396"/>
-      <c r="C14" s="396"/>
-      <c r="D14" s="396"/>
-      <c r="E14" s="396"/>
-      <c r="F14" s="396"/>
-      <c r="G14" s="396"/>
-      <c r="H14" s="396"/>
-      <c r="I14" s="396"/>
-      <c r="J14" s="396"/>
-      <c r="K14" s="396"/>
-      <c r="L14" s="396"/>
-      <c r="M14" s="329"/>
-    </row>
-    <row r="15" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="396"/>
-      <c r="C15" s="396"/>
-      <c r="D15" s="396"/>
-      <c r="E15" s="396"/>
-      <c r="F15" s="396"/>
-      <c r="G15" s="396"/>
-      <c r="H15" s="396"/>
-      <c r="I15" s="396"/>
-      <c r="J15" s="396"/>
-      <c r="K15" s="396"/>
-      <c r="L15" s="396"/>
-      <c r="M15" s="396"/>
-    </row>
-    <row r="16" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="397"/>
-      <c r="B16" s="397"/>
-      <c r="C16" s="397"/>
-      <c r="D16" s="397"/>
-      <c r="E16" s="397"/>
-      <c r="F16" s="397"/>
-      <c r="G16" s="397"/>
-      <c r="H16" s="397"/>
-      <c r="I16" s="397"/>
-      <c r="J16" s="397"/>
-      <c r="K16" s="397"/>
-      <c r="L16" s="397"/>
-      <c r="M16" s="397"/>
-    </row>
-    <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="397"/>
-      <c r="B17" s="397"/>
-      <c r="C17" s="397"/>
-      <c r="D17" s="397"/>
-      <c r="E17" s="397"/>
-      <c r="F17" s="397"/>
-      <c r="G17" s="397"/>
-      <c r="H17" s="397"/>
-      <c r="I17" s="397"/>
-      <c r="J17" s="397"/>
-      <c r="K17" s="397"/>
-      <c r="L17" s="397"/>
-      <c r="M17" s="397"/>
-    </row>
-    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="397"/>
-      <c r="B18" s="397"/>
-      <c r="C18" s="397"/>
-      <c r="D18" s="397"/>
-      <c r="E18" s="397"/>
-      <c r="F18" s="397"/>
-      <c r="G18" s="397"/>
-      <c r="H18" s="397"/>
-      <c r="I18" s="397"/>
-      <c r="J18" s="397"/>
-      <c r="K18" s="397"/>
-      <c r="L18" s="397"/>
-      <c r="M18" s="397"/>
-    </row>
-    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="397" t="s">
-        <v>49</v>
-      </c>
+      <c r="B16" s="396"/>
+      <c r="C16" s="396"/>
+      <c r="D16" s="396"/>
+      <c r="E16" s="396"/>
+      <c r="F16" s="396"/>
+      <c r="G16" s="396"/>
+      <c r="H16" s="396"/>
+      <c r="I16" s="396"/>
+      <c r="J16" s="396"/>
+      <c r="K16" s="396"/>
+      <c r="L16" s="396"/>
+      <c r="M16" s="329"/>
+    </row>
+    <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="396"/>
+      <c r="C17" s="396"/>
+      <c r="D17" s="396"/>
+      <c r="E17" s="396"/>
+      <c r="F17" s="396"/>
+      <c r="G17" s="396"/>
+      <c r="H17" s="396"/>
+      <c r="I17" s="396"/>
+      <c r="J17" s="396"/>
+      <c r="K17" s="396"/>
+      <c r="L17" s="396"/>
+      <c r="M17" s="396"/>
+    </row>
+    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="396"/>
+      <c r="C18" s="396"/>
+      <c r="D18" s="396"/>
+      <c r="E18" s="396"/>
+      <c r="F18" s="396"/>
+      <c r="G18" s="396"/>
+      <c r="H18" s="396"/>
+      <c r="I18" s="396"/>
+      <c r="J18" s="396"/>
+      <c r="K18" s="396"/>
+      <c r="L18" s="396"/>
+      <c r="M18" s="396"/>
+    </row>
+    <row r="19" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="397"/>
       <c r="B19" s="397"/>
       <c r="C19" s="397"/>
       <c r="D19" s="397"/>
       <c r="E19" s="397"/>
       <c r="F19" s="397"/>
       <c r="G19" s="397"/>
-      <c r="H19" t="s">
-        <v>6</v>
-      </c>
+      <c r="H19" s="397"/>
+      <c r="I19" s="397"/>
       <c r="J19" s="397"/>
       <c r="K19" s="397"/>
       <c r="L19" s="397"/>
       <c r="M19" s="397"/>
     </row>
-    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="397" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="397"/>
+      <c r="C20" s="397"/>
+      <c r="D20" s="397"/>
+      <c r="E20" s="397"/>
+      <c r="F20" s="397"/>
+      <c r="G20" s="397"/>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="397"/>
+      <c r="K20" s="397"/>
+      <c r="L20" s="397"/>
+      <c r="M20" s="397"/>
+    </row>
+    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="397" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="397"/>
-      <c r="C20" s="396"/>
-      <c r="D20" s="396"/>
-      <c r="E20" s="396"/>
-      <c r="F20" s="396"/>
-      <c r="G20" s="396"/>
-      <c r="H20" s="397"/>
-      <c r="I20" s="397"/>
-      <c r="J20" s="396"/>
-      <c r="K20" s="396"/>
-      <c r="L20" s="396"/>
-      <c r="M20" s="396"/>
-    </row>
-    <row r="21" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="249"/>
-      <c r="B22" s="79" t="s">
+      <c r="B21" s="397"/>
+      <c r="C21" s="396"/>
+      <c r="D21" s="396"/>
+      <c r="E21" s="396"/>
+      <c r="F21" s="396"/>
+      <c r="G21" s="396"/>
+      <c r="H21" s="397"/>
+      <c r="I21" s="397"/>
+      <c r="J21" s="396"/>
+      <c r="K21" s="396"/>
+      <c r="L21" s="396"/>
+      <c r="M21" s="396"/>
+    </row>
+    <row r="22" spans="1:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="249"/>
+      <c r="B23" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="82" t="s">
+      <c r="C23" s="80"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="79" t="s">
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="80"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="79" t="s">
+      <c r="I23" s="80"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="L22" s="80"/>
-      <c r="M22" s="81"/>
-    </row>
-    <row r="23" spans="1:13" s="27" customFormat="1" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="250" t="s">
+      <c r="L23" s="80"/>
+      <c r="M23" s="81"/>
+    </row>
+    <row r="24" spans="1:13" s="27" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="78" t="s">
+      <c r="B24" s="77"/>
+      <c r="C24" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="78" t="s">
+      <c r="D24" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="84" t="s">
+      <c r="E24" s="37"/>
+      <c r="F24" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="89" t="s">
+      <c r="G24" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="77"/>
-      <c r="I23" s="76" t="s">
+      <c r="H24" s="77"/>
+      <c r="I24" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="86" t="s">
+      <c r="J24" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="77"/>
-      <c r="L23" s="76" t="s">
+      <c r="K24" s="77"/>
+      <c r="L24" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="M23" s="86" t="s">
+      <c r="M24" s="86" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="250" t="s">
+    <row r="25" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B25" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="28" t="s">
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="90"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="61" t="s">
+      <c r="F25" s="90"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="88"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="61" t="s">
+      <c r="I25" s="88"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="88"/>
-      <c r="M24" s="96"/>
-    </row>
-    <row r="25" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="250" t="s">
+      <c r="L25" s="88"/>
+      <c r="M25" s="96"/>
+    </row>
+    <row r="26" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="250" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B26" s="62" t="s">
         <v>9</v>
-      </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="92"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="73"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" s="73"/>
-      <c r="M25" s="52"/>
-    </row>
-    <row r="26" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="250" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="62" t="s">
-        <v>10</v>
       </c>
       <c r="C26" s="73"/>
       <c r="D26" s="73"/>
       <c r="E26" s="49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" s="92"/>
       <c r="G26" s="93"/>
       <c r="H26" s="62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I26" s="73"/>
       <c r="J26" s="52"/>
       <c r="K26" s="62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L26" s="73"/>
       <c r="M26" s="52"/>
     </row>
-    <row r="27" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="250" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="73"/>
       <c r="D27" s="73"/>
       <c r="E27" s="49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" s="92"/>
       <c r="G27" s="93"/>
       <c r="H27" s="62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I27" s="73"/>
       <c r="J27" s="52"/>
       <c r="K27" s="62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L27" s="73"/>
       <c r="M27" s="52"/>
     </row>
-    <row r="28" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="250" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="73"/>
       <c r="D28" s="73"/>
       <c r="E28" s="49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" s="92"/>
       <c r="G28" s="93"/>
       <c r="H28" s="62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I28" s="73"/>
       <c r="J28" s="52"/>
       <c r="K28" s="62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L28" s="73"/>
       <c r="M28" s="52"/>
     </row>
-    <row r="29" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="251"/>
-      <c r="B29" s="72" t="s">
+    <row r="29" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="250" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="92"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="73"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="73"/>
+      <c r="M29" s="52"/>
+    </row>
+    <row r="30" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="251"/>
+      <c r="B30" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="87" t="s">
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="94"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="72" t="s">
+      <c r="F30" s="94"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="74"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="72" t="s">
+      <c r="I30" s="74"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="L29" s="74"/>
-      <c r="M29" s="70"/>
-    </row>
-    <row r="30" spans="1:13" s="5" customFormat="1" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="44"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="348"/>
-      <c r="D30" s="348"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="348"/>
-      <c r="G30" s="348"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="348"/>
-      <c r="J30" s="348"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="348"/>
-      <c r="M30" s="348"/>
-    </row>
-    <row r="31" spans="1:13" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="252" t="s">
+      <c r="L30" s="74"/>
+      <c r="M30" s="70"/>
+    </row>
+    <row r="31" spans="1:13" s="5" customFormat="1" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="44"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="348"/>
+      <c r="D31" s="348"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="348"/>
+      <c r="G31" s="348"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="348"/>
+      <c r="J31" s="348"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="348"/>
+      <c r="M31" s="348"/>
+    </row>
+    <row r="32" spans="1:13" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="252" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="97" t="s">
+      <c r="B32" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="101" t="s">
+      <c r="C32" s="57"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="107"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="56" t="s">
+      <c r="F32" s="107"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="110"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="56" t="s">
+      <c r="I32" s="110"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="L31" s="105"/>
-      <c r="M31" s="57"/>
-    </row>
-    <row r="32" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="242" t="s">
+      <c r="L32" s="105"/>
+      <c r="M32" s="57"/>
+    </row>
+    <row r="33" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="242" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="98" t="s">
+      <c r="B33" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="102" t="s">
+      <c r="C33" s="51"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="28" t="s">
+      <c r="F33" s="14"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="111"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="28" t="s">
+      <c r="I33" s="111"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L32" s="75"/>
-      <c r="M32" s="51"/>
-    </row>
-    <row r="33" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="242" t="s">
+      <c r="L33" s="75"/>
+      <c r="M33" s="51"/>
+    </row>
+    <row r="34" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="242" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="99" t="s">
+      <c r="B34" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="103" t="s">
+      <c r="C34" s="52"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="49" t="s">
+      <c r="F34" s="15"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="31"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="49" t="s">
+      <c r="I34" s="31"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L33" s="73"/>
-      <c r="M33" s="52"/>
-    </row>
-    <row r="34" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="247" t="s">
+      <c r="L34" s="73"/>
+      <c r="M34" s="52"/>
+    </row>
+    <row r="35" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="247" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="100" t="s">
+      <c r="B35" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="104" t="s">
+      <c r="C35" s="59"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="108"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="58" t="s">
+      <c r="F35" s="108"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="I34" s="112"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="58" t="s">
+      <c r="I35" s="112"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="L34" s="106"/>
-      <c r="M34" s="59"/>
-    </row>
-    <row r="35" spans="1:13" s="5" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="347"/>
-    </row>
-    <row r="36" spans="1:13" s="27" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="253" t="s">
+      <c r="L35" s="106"/>
+      <c r="M35" s="59"/>
+    </row>
+    <row r="36" spans="1:13" s="5" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="347"/>
+    </row>
+    <row r="37" spans="1:13" s="27" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="253" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="79" t="s">
+      <c r="B37" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="80"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="82" t="s">
+      <c r="C37" s="80"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="80"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="82" t="s">
+      <c r="F37" s="80"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="80"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="82" t="s">
+      <c r="I37" s="80"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-    </row>
-    <row r="37" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="242" t="s">
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
+    </row>
+    <row r="38" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="242" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="76" t="s">
+      <c r="B38" s="60"/>
+      <c r="C38" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="86" t="s">
+      <c r="D38" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="76" t="s">
+      <c r="E38" s="37"/>
+      <c r="F38" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="86" t="s">
+      <c r="G38" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="37"/>
-      <c r="I37" s="76" t="s">
+      <c r="H38" s="37"/>
+      <c r="I38" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="86" t="s">
+      <c r="J38" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="K37" s="37"/>
-      <c r="L37" s="76" t="s">
+      <c r="K38" s="37"/>
+      <c r="L38" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="M37" s="86" t="s">
+      <c r="M38" s="86" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="242" t="s">
+    <row r="39" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="242" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="61" t="s">
+      <c r="B39" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="75"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="28" t="s">
+      <c r="C39" s="75"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="75"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="28" t="s">
+      <c r="F39" s="75"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I38" s="75"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="28" t="s">
+      <c r="I39" s="75"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="75"/>
-      <c r="M38" s="51"/>
-    </row>
-    <row r="39" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="242" t="s">
+      <c r="L39" s="75"/>
+      <c r="M39" s="51"/>
+    </row>
+    <row r="40" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="242" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="62" t="s">
+      <c r="B40" s="62" t="s">
         <v>9</v>
-      </c>
-      <c r="C39" s="73"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="73"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" s="73"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="L39" s="73"/>
-      <c r="M39" s="52"/>
-    </row>
-    <row r="40" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="242" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="62" t="s">
-        <v>31</v>
       </c>
       <c r="C40" s="73"/>
       <c r="D40" s="52"/>
       <c r="E40" s="49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F40" s="73"/>
       <c r="G40" s="52"/>
       <c r="H40" s="49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I40" s="73"/>
       <c r="J40" s="52"/>
       <c r="K40" s="49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L40" s="73"/>
       <c r="M40" s="52"/>
     </row>
-    <row r="41" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="247" t="s">
+    <row r="41" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="242" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="73"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="73"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="73"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="73"/>
+      <c r="M41" s="52"/>
+    </row>
+    <row r="42" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="247" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B42" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="106"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="58" t="s">
+      <c r="C42" s="106"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="106"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="58" t="s">
+      <c r="F42" s="106"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="106"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="58" t="s">
+      <c r="I42" s="106"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="L41" s="106"/>
-      <c r="M41" s="59"/>
-    </row>
-    <row r="42" spans="1:13" s="5" customFormat="1" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="43" spans="1:13" s="27" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="254"/>
-      <c r="B43" s="113" t="s">
+      <c r="L42" s="106"/>
+      <c r="M42" s="59"/>
+    </row>
+    <row r="43" spans="1:13" s="5" customFormat="1" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:13" s="27" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="254"/>
+      <c r="B44" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="67" t="s">
+      <c r="C44" s="65"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="65"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="67" t="s">
+      <c r="F44" s="65"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="65"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="68" t="s">
+      <c r="I44" s="65"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="L43" s="65"/>
-      <c r="M43" s="69"/>
-    </row>
-    <row r="44" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="255"/>
-      <c r="B44" s="117" t="s">
+      <c r="L44" s="65"/>
+      <c r="M44" s="69"/>
+    </row>
+    <row r="45" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="255"/>
+      <c r="B45" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="118"/>
-      <c r="D44" s="119" t="s">
+      <c r="C45" s="118"/>
+      <c r="D45" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="120"/>
-      <c r="F44" s="118" t="s">
+      <c r="E45" s="120"/>
+      <c r="F45" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="G44" s="118"/>
-      <c r="H44" s="120" t="s">
+      <c r="G45" s="118"/>
+      <c r="H45" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="I44" s="118"/>
-      <c r="J44" s="118" t="s">
+      <c r="I45" s="118"/>
+      <c r="J45" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="K44" s="120"/>
-      <c r="L44" s="121"/>
-      <c r="M44" s="122"/>
-    </row>
-    <row r="45" spans="1:13" s="27" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="256"/>
-      <c r="B45" s="114"/>
-      <c r="C45" s="76" t="s">
+      <c r="K45" s="120"/>
+      <c r="L45" s="121"/>
+      <c r="M45" s="122"/>
+    </row>
+    <row r="46" spans="1:13" s="27" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="256"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="123" t="s">
+      <c r="D46" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="124"/>
-      <c r="F45" s="123" t="s">
+      <c r="E46" s="124"/>
+      <c r="F46" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="76" t="s">
+      <c r="G46" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="115"/>
-      <c r="I45" s="76" t="s">
+      <c r="H46" s="115"/>
+      <c r="I46" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="123" t="s">
+      <c r="J46" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="K45" s="125"/>
-      <c r="L45" s="76" t="s">
+      <c r="K46" s="125"/>
+      <c r="L46" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="M45" s="116" t="s">
+      <c r="M46" s="116" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="250" t="s">
+    <row r="47" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="250" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B47" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="75"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="98" t="s">
+      <c r="C47" s="75"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="28" t="s">
+      <c r="F47" s="19"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I46" s="75"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="98" t="s">
+      <c r="I47" s="75"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="L46" s="75"/>
-      <c r="M46" s="51"/>
-    </row>
-    <row r="47" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="250" t="s">
+      <c r="L47" s="75"/>
+      <c r="M47" s="51"/>
+    </row>
+    <row r="48" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="250" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="62" t="s">
+      <c r="B48" s="62" t="s">
         <v>51</v>
-      </c>
-      <c r="C47" s="73"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="I47" s="73"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="L47" s="73"/>
-      <c r="M47" s="52"/>
-    </row>
-    <row r="48" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="250" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="62" t="s">
-        <v>52</v>
       </c>
       <c r="C48" s="73"/>
       <c r="D48" s="17"/>
       <c r="E48" s="99" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F48" s="17"/>
       <c r="G48" s="73"/>
       <c r="H48" s="49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I48" s="73"/>
       <c r="J48" s="17"/>
       <c r="K48" s="99" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L48" s="73"/>
       <c r="M48" s="52"/>
     </row>
-    <row r="49" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="250" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B49" s="62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="73"/>
       <c r="D49" s="17"/>
       <c r="E49" s="99" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F49" s="17"/>
       <c r="G49" s="73"/>
       <c r="H49" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I49" s="73"/>
       <c r="J49" s="17"/>
       <c r="K49" s="99" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L49" s="73"/>
       <c r="M49" s="52"/>
     </row>
-    <row r="50" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="250" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B50" s="62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="73"/>
       <c r="D50" s="17"/>
       <c r="E50" s="99" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F50" s="17"/>
       <c r="G50" s="73"/>
       <c r="H50" s="49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I50" s="73"/>
       <c r="J50" s="17"/>
       <c r="K50" s="99" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L50" s="73"/>
       <c r="M50" s="52"/>
     </row>
-    <row r="51" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="255"/>
+    <row r="51" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="250" t="s">
+        <v>38</v>
+      </c>
       <c r="B51" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" s="73"/>
       <c r="D51" s="17"/>
       <c r="E51" s="99" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F51" s="17"/>
       <c r="G51" s="73"/>
       <c r="H51" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I51" s="73"/>
       <c r="J51" s="17"/>
       <c r="K51" s="99" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L51" s="73"/>
       <c r="M51" s="52"/>
     </row>
-    <row r="52" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="257"/>
-      <c r="B52" s="100" t="s">
+    <row r="52" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="255"/>
+      <c r="B52" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="73"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="17"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="I52" s="73"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="L52" s="73"/>
+      <c r="M52" s="52"/>
+    </row>
+    <row r="53" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="257"/>
+      <c r="B53" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="106"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="100" t="s">
+      <c r="C53" s="106"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="64"/>
-      <c r="G52" s="106"/>
-      <c r="H52" s="58" t="s">
+      <c r="F53" s="64"/>
+      <c r="G53" s="106"/>
+      <c r="H53" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="I52" s="106"/>
-      <c r="J52" s="64"/>
-      <c r="K52" s="100" t="s">
+      <c r="I53" s="106"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="L52" s="106"/>
-      <c r="M52" s="59"/>
-    </row>
-    <row r="53" spans="1:13" s="5" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="342"/>
-      <c r="B53" s="343"/>
-      <c r="C53" s="343"/>
-      <c r="D53" s="343"/>
-      <c r="E53" s="343"/>
-      <c r="F53" s="343"/>
-      <c r="G53" s="343"/>
-      <c r="H53" s="343"/>
-      <c r="I53" s="343"/>
-      <c r="J53" s="343"/>
-      <c r="K53" s="343"/>
-      <c r="L53" s="343"/>
-      <c r="M53" s="344"/>
-    </row>
-    <row r="54" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="322" t="s">
+      <c r="L53" s="106"/>
+      <c r="M53" s="59"/>
+    </row>
+    <row r="54" spans="1:13" s="5" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="342"/>
+      <c r="B54" s="343"/>
+      <c r="C54" s="343"/>
+      <c r="D54" s="343"/>
+      <c r="E54" s="343"/>
+      <c r="F54" s="343"/>
+      <c r="G54" s="343"/>
+      <c r="H54" s="343"/>
+      <c r="I54" s="343"/>
+      <c r="J54" s="343"/>
+      <c r="K54" s="343"/>
+      <c r="L54" s="343"/>
+      <c r="M54" s="344"/>
+    </row>
+    <row r="55" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="322" t="s">
         <v>19</v>
       </c>
-      <c r="B54" s="136" t="s">
+      <c r="B55" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="137"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="79" t="s">
+      <c r="C55" s="137"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="137"/>
-      <c r="G54" s="138"/>
-      <c r="H54" s="82" t="s">
+      <c r="F55" s="137"/>
+      <c r="G55" s="138"/>
+      <c r="H55" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="I54" s="137"/>
-      <c r="J54" s="137"/>
-      <c r="K54" s="79" t="s">
+      <c r="I55" s="137"/>
+      <c r="J55" s="137"/>
+      <c r="K55" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="L54" s="139"/>
-      <c r="M54" s="140"/>
-    </row>
-    <row r="55" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="281"/>
-      <c r="B55" s="135" t="s">
+      <c r="L55" s="139"/>
+      <c r="M55" s="140"/>
+    </row>
+    <row r="56" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="281"/>
+      <c r="B56" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="141" t="s">
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="19"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="141" t="s">
+      <c r="F56" s="19"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="141" t="s">
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="L55" s="19"/>
-      <c r="M55" s="51"/>
-    </row>
-    <row r="56" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="281" t="s">
+      <c r="L56" s="19"/>
+      <c r="M56" s="51"/>
+    </row>
+    <row r="57" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="281" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="127" t="s">
+      <c r="B57" s="127" t="s">
         <v>27</v>
-      </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" s="131"/>
-      <c r="H56" s="142" t="s">
-        <v>27</v>
-      </c>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="142" t="s">
-        <v>27</v>
-      </c>
-      <c r="L56" s="20"/>
-      <c r="M56" s="134"/>
-    </row>
-    <row r="57" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="281" t="s">
-        <v>33</v>
-      </c>
-      <c r="B57" s="128" t="s">
-        <v>28</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
-      <c r="E57" s="143" t="s">
+      <c r="E57" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="131"/>
+      <c r="H57" s="142" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="142" t="s">
+        <v>27</v>
+      </c>
+      <c r="L57" s="20"/>
+      <c r="M57" s="134"/>
+    </row>
+    <row r="58" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="281" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="132"/>
-      <c r="H57" s="143" t="s">
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="143" t="s">
+      <c r="F58" s="21"/>
+      <c r="G58" s="132"/>
+      <c r="H58" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="52"/>
-    </row>
-    <row r="58" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="281" t="s">
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="52"/>
+    </row>
+    <row r="59" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="281" t="s">
         <v>39</v>
       </c>
-      <c r="B58" s="129" t="s">
+      <c r="B59" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="E58" s="144" t="s">
+      <c r="E59" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="133"/>
-      <c r="H58" s="144" t="s">
+      <c r="F59" s="16"/>
+      <c r="G59" s="133"/>
+      <c r="H59" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="144" t="s">
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="M58" s="131"/>
-    </row>
-    <row r="59" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="282" t="s">
+      <c r="M59" s="131"/>
+    </row>
+    <row r="60" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="282" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="130" t="s">
+      <c r="B60" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="112"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="100" t="s">
+      <c r="C60" s="112"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="F59" s="64"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="100" t="s">
+      <c r="F60" s="64"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="I59" s="64"/>
-      <c r="J59" s="64"/>
-      <c r="K59" s="100" t="s">
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="L59" s="64"/>
-      <c r="M59" s="59"/>
-    </row>
-    <row r="60" spans="1:13" s="5" customFormat="1" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K60" s="345"/>
-      <c r="M60" s="346"/>
-    </row>
-    <row r="61" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="322" t="s">
+      <c r="L60" s="64"/>
+      <c r="M60" s="59"/>
+    </row>
+    <row r="61" spans="1:13" s="5" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K61" s="345"/>
+      <c r="M61" s="346"/>
+    </row>
+    <row r="62" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="322" t="s">
         <v>47</v>
       </c>
-      <c r="B61" s="146" t="s">
+      <c r="B62" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="C61" s="80"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="147" t="s">
+      <c r="C62" s="80"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="F61" s="80"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="147" t="s">
+      <c r="F62" s="80"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="I61" s="80"/>
-      <c r="J61" s="83"/>
-      <c r="K61" s="147" t="s">
+      <c r="I62" s="80"/>
+      <c r="J62" s="83"/>
+      <c r="K62" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="L61" s="10"/>
-      <c r="M61" s="148"/>
-    </row>
-    <row r="62" spans="1:13" s="27" customFormat="1" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="281" t="s">
+      <c r="L62" s="10"/>
+      <c r="M62" s="148"/>
+    </row>
+    <row r="63" spans="1:13" s="27" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="281" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="37"/>
-      <c r="C62" s="76" t="s">
+      <c r="B63" s="37"/>
+      <c r="C63" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="86" t="s">
+      <c r="D63" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="E62" s="37"/>
-      <c r="F62" s="76" t="s">
+      <c r="E63" s="37"/>
+      <c r="F63" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="G62" s="86" t="s">
+      <c r="G63" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="H62" s="37"/>
-      <c r="I62" s="76" t="s">
+      <c r="H63" s="37"/>
+      <c r="I63" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="86" t="s">
+      <c r="J63" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="K62" s="37"/>
-      <c r="L62" s="76" t="s">
+      <c r="K63" s="37"/>
+      <c r="L63" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="M62" s="86" t="s">
+      <c r="M63" s="86" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="281" t="s">
+    <row r="64" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="281" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="50" t="s">
+      <c r="B64" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C63" s="75"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="50" t="s">
+      <c r="C64" s="75"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="F63" s="75"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="50" t="s">
+      <c r="F64" s="75"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="I63" s="75"/>
-      <c r="J63" s="51"/>
-      <c r="K63" s="50" t="s">
+      <c r="I64" s="75"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="L63" s="75"/>
-      <c r="M63" s="51"/>
-    </row>
-    <row r="64" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="281" t="s">
+      <c r="L64" s="75"/>
+      <c r="M64" s="51"/>
+    </row>
+    <row r="65" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="281" t="s">
         <v>46</v>
       </c>
-      <c r="B64" s="50" t="s">
+      <c r="B65" s="50" t="s">
         <v>42</v>
-      </c>
-      <c r="C64" s="73"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="F64" s="73"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="I64" s="73"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="L64" s="73"/>
-      <c r="M64" s="52"/>
-    </row>
-    <row r="65" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="281" t="s">
-        <v>16</v>
-      </c>
-      <c r="B65" s="50" t="s">
-        <v>43</v>
       </c>
       <c r="C65" s="73"/>
       <c r="D65" s="52"/>
       <c r="E65" s="50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F65" s="73"/>
       <c r="G65" s="52"/>
       <c r="H65" s="50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I65" s="73"/>
       <c r="J65" s="52"/>
       <c r="K65" s="50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L65" s="73"/>
       <c r="M65" s="52"/>
     </row>
-    <row r="66" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="282" t="s">
+    <row r="66" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="281" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="73"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" s="73"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="I66" s="73"/>
+      <c r="J66" s="52"/>
+      <c r="K66" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="L66" s="73"/>
+      <c r="M66" s="52"/>
+    </row>
+    <row r="67" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="B66" s="145" t="s">
+      <c r="B67" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="106"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="145" t="s">
+      <c r="C67" s="106"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="F66" s="106"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="145" t="s">
+      <c r="F67" s="106"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="I66" s="106"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="145" t="s">
+      <c r="I67" s="106"/>
+      <c r="J67" s="59"/>
+      <c r="K67" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="L66" s="106"/>
-      <c r="M66" s="59"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C70" t="s">
+      <c r="L67" s="106"/>
+      <c r="M67" s="59"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="5" scale="97" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="5" scale="98" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:P64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.26953125" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="2" customWidth="1"/>
-    <col min="3" max="4" width="2.453125" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
-    <col min="6" max="6" width="2.7265625" customWidth="1"/>
+    <col min="3" max="4" width="2.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
-    <col min="8" max="8" width="2.453125" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" customWidth="1"/>
-    <col min="10" max="10" width="7.54296875" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="6.26953125" customWidth="1"/>
-    <col min="13" max="13" width="5.54296875" customWidth="1"/>
-    <col min="14" max="14" width="6.7265625" customWidth="1"/>
-    <col min="15" max="16" width="7.1796875" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1"/>
+    <col min="15" max="16" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="6" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="405" t="s">
+    <row r="2" spans="1:16" s="6" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="406" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="407" t="s">
+      <c r="B2" s="408" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="408"/>
-      <c r="D2" s="409"/>
+      <c r="C2" s="409"/>
+      <c r="D2" s="410"/>
       <c r="E2" s="157" t="s">
         <v>81</v>
       </c>
@@ -6311,8 +6300,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="406"/>
+    <row r="3" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="407"/>
       <c r="B3" s="159" t="s">
         <v>62</v>
       </c>
@@ -6355,7 +6344,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="111"/>
       <c r="B4" s="153"/>
       <c r="C4" s="11"/>
@@ -6373,7 +6362,7 @@
       <c r="O4" s="75"/>
       <c r="P4" s="51"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="92"/>
       <c r="C5" s="8"/>
@@ -6391,7 +6380,7 @@
       <c r="O5" s="73"/>
       <c r="P5" s="52"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="B6" s="92"/>
       <c r="C6" s="8"/>
@@ -6409,7 +6398,7 @@
       <c r="O6" s="73"/>
       <c r="P6" s="52"/>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="112"/>
       <c r="B7" s="155"/>
       <c r="C7" s="149"/>
@@ -6427,7 +6416,7 @@
       <c r="O7" s="106"/>
       <c r="P7" s="59"/>
     </row>
-    <row r="8" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O8" s="219" t="s">
         <v>69</v>
       </c>
@@ -6435,13 +6424,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="176" t="s">
         <v>86</v>
       </c>
@@ -6463,7 +6452,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="148"/>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="176" t="s">
         <v>87</v>
       </c>
@@ -6485,7 +6474,7 @@
       <c r="O12" s="10"/>
       <c r="P12" s="148"/>
     </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="176" t="s">
         <v>88</v>
       </c>
@@ -6507,7 +6496,7 @@
       <c r="O13" s="10"/>
       <c r="P13" s="148"/>
     </row>
-    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="126" t="s">
         <v>97</v>
       </c>
@@ -6529,7 +6518,7 @@
       <c r="O14" s="10"/>
       <c r="P14" s="148"/>
     </row>
-    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="176" t="s">
         <v>89</v>
       </c>
@@ -6551,7 +6540,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="148"/>
     </row>
-    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="176" t="s">
         <v>96</v>
       </c>
@@ -6573,14 +6562,14 @@
       <c r="O16" s="10"/>
       <c r="P16" s="148"/>
     </row>
-    <row r="17" spans="1:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>150</v>
       </c>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="177" t="s">
         <v>45</v>
       </c>
@@ -6600,7 +6589,7 @@
       <c r="O19" s="179"/>
       <c r="P19" s="180"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="73"/>
       <c r="B20" s="31"/>
       <c r="C20" s="17"/>
@@ -6618,11 +6607,11 @@
       <c r="O20" s="17"/>
       <c r="P20" s="52"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="73"/>
       <c r="P21" s="131"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="73"/>
       <c r="B22" s="31"/>
       <c r="C22" s="17"/>
@@ -6640,12 +6629,12 @@
       <c r="O22" s="17"/>
       <c r="P22" s="52"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="31"/>
       <c r="P23" s="131"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="73"/>
       <c r="B24" s="31"/>
       <c r="C24" s="17"/>
@@ -6663,12 +6652,12 @@
       <c r="O24" s="17"/>
       <c r="P24" s="52"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="181"/>
       <c r="B25" s="30"/>
       <c r="P25" s="131"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="73"/>
       <c r="B26" s="31"/>
       <c r="C26" s="17"/>
@@ -6686,12 +6675,12 @@
       <c r="O26" s="17"/>
       <c r="P26" s="52"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="181"/>
       <c r="B27" s="30"/>
       <c r="P27" s="131"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="73"/>
       <c r="B28" s="31"/>
       <c r="C28" s="17"/>
@@ -6709,12 +6698,12 @@
       <c r="O28" s="17"/>
       <c r="P28" s="52"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="181"/>
       <c r="B29" s="30"/>
       <c r="P29" s="131"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="73"/>
       <c r="B30" s="31"/>
       <c r="C30" s="17"/>
@@ -6732,12 +6721,12 @@
       <c r="O30" s="17"/>
       <c r="P30" s="52"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="181"/>
       <c r="B31" s="30"/>
       <c r="P31" s="131"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="73"/>
       <c r="B32" s="31"/>
       <c r="C32" s="17"/>
@@ -6755,12 +6744,12 @@
       <c r="O32" s="17"/>
       <c r="P32" s="52"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="181"/>
       <c r="B33" s="30"/>
       <c r="P33" s="131"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="73"/>
       <c r="B34" s="31"/>
       <c r="C34" s="17"/>
@@ -6778,12 +6767,12 @@
       <c r="O34" s="17"/>
       <c r="P34" s="52"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="181"/>
       <c r="B35" s="30"/>
       <c r="P35" s="131"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="73"/>
       <c r="B36" s="31"/>
       <c r="C36" s="17"/>
@@ -6801,12 +6790,12 @@
       <c r="O36" s="17"/>
       <c r="P36" s="52"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="181"/>
       <c r="B37" s="30"/>
       <c r="P37" s="131"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="73"/>
       <c r="B38" s="31"/>
       <c r="C38" s="17"/>
@@ -6824,12 +6813,12 @@
       <c r="O38" s="17"/>
       <c r="P38" s="52"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="181"/>
       <c r="B39" s="30"/>
       <c r="P39" s="131"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="73"/>
       <c r="B40" s="31"/>
       <c r="C40" s="17"/>
@@ -6847,12 +6836,12 @@
       <c r="O40" s="17"/>
       <c r="P40" s="52"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="181"/>
       <c r="B41" s="30"/>
       <c r="P41" s="131"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="73"/>
       <c r="B42" s="31"/>
       <c r="C42" s="17"/>
@@ -6870,12 +6859,12 @@
       <c r="O42" s="17"/>
       <c r="P42" s="52"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="181"/>
       <c r="B43" s="30"/>
       <c r="P43" s="131"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="73"/>
       <c r="B44" s="31"/>
       <c r="C44" s="17"/>
@@ -6893,12 +6882,12 @@
       <c r="O44" s="17"/>
       <c r="P44" s="52"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="181"/>
       <c r="B45" s="30"/>
       <c r="P45" s="131"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="73"/>
       <c r="B46" s="31"/>
       <c r="C46" s="17"/>
@@ -6916,7 +6905,7 @@
       <c r="O46" s="17"/>
       <c r="P46" s="52"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="73"/>
       <c r="B47" s="31"/>
       <c r="C47" s="17"/>
@@ -6934,12 +6923,12 @@
       <c r="O47" s="17"/>
       <c r="P47" s="52"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="181"/>
       <c r="B48" s="30"/>
       <c r="P48" s="131"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="73"/>
       <c r="B49" s="31"/>
       <c r="C49" s="17"/>
@@ -6957,12 +6946,12 @@
       <c r="O49" s="17"/>
       <c r="P49" s="52"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="181"/>
       <c r="B50" s="30"/>
       <c r="P50" s="131"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="73"/>
       <c r="B51" s="31"/>
       <c r="C51" s="17"/>
@@ -6980,7 +6969,7 @@
       <c r="O51" s="17"/>
       <c r="P51" s="52"/>
     </row>
-    <row r="52" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="182"/>
       <c r="B52" s="126"/>
       <c r="C52" s="9"/>
@@ -6998,17 +6987,17 @@
       <c r="O52" s="9"/>
       <c r="P52" s="109"/>
     </row>
-    <row r="54" spans="1:17" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="55" spans="1:17" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>241</v>
       </c>
@@ -7027,7 +7016,7 @@
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>240</v>
       </c>
@@ -7046,7 +7035,7 @@
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -7063,7 +7052,7 @@
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -7080,7 +7069,7 @@
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -7097,14 +7086,14 @@
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A63" s="404" t="s">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="405" t="s">
         <v>99</v>
       </c>
-      <c r="B63" s="404"/>
-      <c r="C63" s="404"/>
-      <c r="D63" s="404"/>
-      <c r="E63" s="404"/>
+      <c r="B63" s="405"/>
+      <c r="C63" s="405"/>
+      <c r="D63" s="405"/>
+      <c r="E63" s="405"/>
       <c r="F63" s="22" t="s">
         <v>101</v>
       </c>
@@ -7112,46 +7101,46 @@
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
       <c r="J63" s="22"/>
-      <c r="K63" s="404" t="s">
+      <c r="K63" s="405" t="s">
         <v>102</v>
       </c>
-      <c r="L63" s="404"/>
-      <c r="M63" s="404"/>
-      <c r="N63" s="404" t="s">
+      <c r="L63" s="405"/>
+      <c r="M63" s="405"/>
+      <c r="N63" s="405" t="s">
         <v>102</v>
       </c>
-      <c r="O63" s="404"/>
-      <c r="P63" s="404"/>
+      <c r="O63" s="405"/>
+      <c r="P63" s="405"/>
       <c r="Q63" s="22"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A64" s="404" t="s">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="405" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="404"/>
-      <c r="C64" s="404"/>
-      <c r="D64" s="404"/>
-      <c r="E64" s="404"/>
-      <c r="F64" s="404" t="s">
+      <c r="B64" s="405"/>
+      <c r="C64" s="405"/>
+      <c r="D64" s="405"/>
+      <c r="E64" s="405"/>
+      <c r="F64" s="405" t="s">
         <v>100</v>
       </c>
-      <c r="G64" s="404"/>
-      <c r="H64" s="404"/>
-      <c r="I64" s="404"/>
+      <c r="G64" s="405"/>
+      <c r="H64" s="405"/>
+      <c r="I64" s="405"/>
       <c r="J64" s="22"/>
-      <c r="K64" s="404" t="s">
+      <c r="K64" s="405" t="s">
         <v>103</v>
       </c>
-      <c r="L64" s="404"/>
-      <c r="M64" s="404"/>
-      <c r="N64" s="404" t="s">
+      <c r="L64" s="405"/>
+      <c r="M64" s="405"/>
+      <c r="N64" s="405" t="s">
         <v>103</v>
       </c>
-      <c r="O64" s="404"/>
-      <c r="P64" s="404"/>
+      <c r="O64" s="405"/>
+      <c r="P64" s="405"/>
       <c r="Q64" s="22"/>
     </row>
-    <row r="68" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K68" t="s">
         <v>48</v>
       </c>
@@ -7174,34 +7163,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.54296875" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="2.7265625" customWidth="1"/>
-    <col min="4" max="4" width="2.81640625" customWidth="1"/>
-    <col min="5" max="5" width="4.81640625" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
     <col min="7" max="8" width="3" customWidth="1"/>
-    <col min="9" max="9" width="5.1796875" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" customWidth="1"/>
-    <col min="11" max="11" width="3.26953125" customWidth="1"/>
-    <col min="12" max="12" width="3.7265625" customWidth="1"/>
-    <col min="13" max="13" width="5.26953125" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" customWidth="1"/>
-    <col min="15" max="15" width="3.1796875" customWidth="1"/>
-    <col min="16" max="16" width="3.26953125" customWidth="1"/>
-    <col min="17" max="17" width="5.54296875" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="3.28515625" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" customWidth="1"/>
+    <col min="15" max="15" width="3.140625" customWidth="1"/>
+    <col min="16" max="16" width="3.28515625" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C1" s="4" t="s">
         <v>104</v>
       </c>
@@ -7219,12 +7208,12 @@
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="23" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
@@ -7239,12 +7228,12 @@
       <c r="Q4" s="400"/>
       <c r="R4" s="400"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -7264,95 +7253,57 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="401" t="s">
+    <row r="7" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="401" t="s">
         <v>234</v>
       </c>
-      <c r="B14" s="396"/>
-      <c r="C14" s="396"/>
-      <c r="D14" s="396"/>
-      <c r="E14" s="396"/>
-      <c r="F14" s="396"/>
-      <c r="G14" s="396"/>
-      <c r="H14" s="396"/>
-      <c r="I14" s="396"/>
-      <c r="J14" s="396"/>
-      <c r="K14" s="396"/>
-      <c r="L14" s="396"/>
-      <c r="M14" s="396"/>
-      <c r="N14" s="396"/>
-      <c r="O14" s="396"/>
-      <c r="P14" s="396"/>
-      <c r="Q14" s="396"/>
-      <c r="R14" s="396"/>
-    </row>
-    <row r="15" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="396"/>
-      <c r="C15" s="396"/>
-      <c r="D15" s="396"/>
-      <c r="E15" s="396"/>
-      <c r="F15" s="396"/>
-      <c r="G15" s="396"/>
-      <c r="H15" s="396"/>
-      <c r="I15" s="396"/>
-      <c r="J15" s="396"/>
-      <c r="K15" s="396"/>
-      <c r="L15" s="396"/>
-      <c r="M15" s="396"/>
-      <c r="N15" s="396"/>
-      <c r="O15" s="396"/>
-      <c r="P15" s="396"/>
-      <c r="Q15" s="396"/>
-      <c r="R15" s="396"/>
-    </row>
-    <row r="16" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="397"/>
-      <c r="B16" s="397"/>
-      <c r="C16" s="397"/>
-      <c r="D16" s="397"/>
-      <c r="E16" s="397"/>
-      <c r="F16" s="397"/>
-      <c r="G16" s="397"/>
-      <c r="H16" s="397"/>
-      <c r="I16" s="397"/>
-      <c r="J16" s="397"/>
-      <c r="K16" s="397"/>
-      <c r="L16" s="397"/>
-      <c r="M16" s="397"/>
-      <c r="N16" s="397"/>
-      <c r="O16" s="397"/>
-      <c r="P16" s="397"/>
-      <c r="Q16" s="397"/>
-      <c r="R16" s="397"/>
-    </row>
-    <row r="17" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="397"/>
-      <c r="B17" s="397"/>
-      <c r="C17" s="397"/>
-      <c r="D17" s="397"/>
-      <c r="E17" s="397"/>
-      <c r="F17" s="397"/>
-      <c r="G17" s="397"/>
-      <c r="H17" s="397"/>
-      <c r="I17" s="397"/>
-      <c r="J17" s="397"/>
-      <c r="K17" s="397"/>
-      <c r="L17" s="397"/>
-      <c r="M17" s="397"/>
-      <c r="N17" s="397"/>
-      <c r="O17" s="397"/>
-      <c r="P17" s="397"/>
-      <c r="Q17" s="397"/>
-      <c r="R17" s="397"/>
-    </row>
-    <row r="18" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="396"/>
+      <c r="C16" s="396"/>
+      <c r="D16" s="396"/>
+      <c r="E16" s="396"/>
+      <c r="F16" s="396"/>
+      <c r="G16" s="396"/>
+      <c r="H16" s="396"/>
+      <c r="I16" s="396"/>
+      <c r="J16" s="396"/>
+      <c r="K16" s="396"/>
+      <c r="L16" s="396"/>
+      <c r="M16" s="396"/>
+      <c r="N16" s="396"/>
+      <c r="O16" s="396"/>
+      <c r="P16" s="396"/>
+      <c r="Q16" s="396"/>
+      <c r="R16" s="396"/>
+    </row>
+    <row r="17" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="396"/>
+      <c r="C17" s="396"/>
+      <c r="D17" s="396"/>
+      <c r="E17" s="396"/>
+      <c r="F17" s="396"/>
+      <c r="G17" s="396"/>
+      <c r="H17" s="396"/>
+      <c r="I17" s="396"/>
+      <c r="J17" s="396"/>
+      <c r="K17" s="396"/>
+      <c r="L17" s="396"/>
+      <c r="M17" s="396"/>
+      <c r="N17" s="396"/>
+      <c r="O17" s="396"/>
+      <c r="P17" s="396"/>
+      <c r="Q17" s="396"/>
+      <c r="R17" s="396"/>
+    </row>
+    <row r="18" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="397"/>
       <c r="B18" s="397"/>
       <c r="C18" s="397"/>
@@ -7372,10 +7323,8 @@
       <c r="Q18" s="397"/>
       <c r="R18" s="397"/>
     </row>
-    <row r="19" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="397" t="s">
-        <v>49</v>
-      </c>
+    <row r="19" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="397"/>
       <c r="B19" s="397"/>
       <c r="C19" s="397"/>
       <c r="D19" s="397"/>
@@ -7385,9 +7334,7 @@
       <c r="H19" s="397"/>
       <c r="I19" s="397"/>
       <c r="J19" s="397"/>
-      <c r="K19" s="397" t="s">
-        <v>6</v>
-      </c>
+      <c r="K19" s="397"/>
       <c r="L19" s="397"/>
       <c r="M19" s="397"/>
       <c r="N19" s="397"/>
@@ -7396,9 +7343,9 @@
       <c r="Q19" s="397"/>
       <c r="R19" s="397"/>
     </row>
-    <row r="20" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="397" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B20" s="397"/>
       <c r="C20" s="397"/>
@@ -7409,7 +7356,9 @@
       <c r="H20" s="397"/>
       <c r="I20" s="397"/>
       <c r="J20" s="397"/>
-      <c r="K20" s="397"/>
+      <c r="K20" s="397" t="s">
+        <v>6</v>
+      </c>
       <c r="L20" s="397"/>
       <c r="M20" s="397"/>
       <c r="N20" s="397"/>
@@ -7418,1088 +7367,1110 @@
       <c r="Q20" s="397"/>
       <c r="R20" s="397"/>
     </row>
-    <row r="21" spans="1:18" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="22" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="253"/>
-      <c r="B22" s="82" t="s">
+    <row r="21" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="397" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="397"/>
+      <c r="C21" s="397"/>
+      <c r="D21" s="397"/>
+      <c r="E21" s="397"/>
+      <c r="F21" s="397"/>
+      <c r="G21" s="397"/>
+      <c r="H21" s="397"/>
+      <c r="I21" s="397"/>
+      <c r="J21" s="397"/>
+      <c r="K21" s="397"/>
+      <c r="L21" s="397"/>
+      <c r="M21" s="397"/>
+      <c r="N21" s="397"/>
+      <c r="O21" s="397"/>
+      <c r="P21" s="397"/>
+      <c r="Q21" s="397"/>
+      <c r="R21" s="397"/>
+    </row>
+    <row r="22" spans="1:18" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="253"/>
+      <c r="B23" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="185"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="185"/>
-      <c r="F22" s="79" t="s">
+      <c r="C23" s="185"/>
+      <c r="D23" s="185"/>
+      <c r="E23" s="185"/>
+      <c r="F23" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="186"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="188"/>
-      <c r="J22" s="82" t="s">
+      <c r="G23" s="186"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="186"/>
-      <c r="L22" s="185"/>
-      <c r="M22" s="188"/>
-      <c r="N22" s="82" t="s">
+      <c r="K23" s="186"/>
+      <c r="L23" s="185"/>
+      <c r="M23" s="188"/>
+      <c r="N23" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="O22" s="186"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="81"/>
-    </row>
-    <row r="23" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="242" t="s">
+      <c r="O23" s="186"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="81"/>
+    </row>
+    <row r="24" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="242" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="424" t="s">
+      <c r="B24" s="37"/>
+      <c r="C24" s="411" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="425"/>
-      <c r="E23" s="76" t="s">
+      <c r="D24" s="412"/>
+      <c r="E24" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="189"/>
-      <c r="G23" s="424" t="s">
+      <c r="F24" s="189"/>
+      <c r="G24" s="411" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="425"/>
-      <c r="I23" s="76" t="s">
+      <c r="H24" s="412"/>
+      <c r="I24" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="37"/>
-      <c r="K23" s="424" t="s">
+      <c r="J24" s="37"/>
+      <c r="K24" s="411" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="425"/>
-      <c r="M23" s="86" t="s">
+      <c r="L24" s="412"/>
+      <c r="M24" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="N23" s="37"/>
-      <c r="O23" s="424" t="s">
+      <c r="N24" s="37"/>
+      <c r="O24" s="411" t="s">
         <v>20</v>
       </c>
-      <c r="P23" s="425"/>
-      <c r="Q23" s="76" t="s">
+      <c r="P24" s="412"/>
+      <c r="Q24" s="76" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="242" t="s">
+    <row r="25" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="242" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B25" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="181"/>
-      <c r="F24" s="98" t="s">
+      <c r="C25" s="30"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="47" t="s">
+      <c r="G25" s="38"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="192"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="47" t="s">
+      <c r="K25" s="192"/>
+      <c r="L25" s="131"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="192"/>
-      <c r="P24" s="131"/>
-      <c r="Q24" s="131"/>
-    </row>
-    <row r="25" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="242" t="s">
+      <c r="O25" s="192"/>
+      <c r="P25" s="131"/>
+      <c r="Q25" s="131"/>
+    </row>
+    <row r="26" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="242" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B26" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="99" t="s">
+      <c r="C26" s="31"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="53"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="49" t="s">
+      <c r="G26" s="53"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="193"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="49" t="s">
+      <c r="K26" s="193"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="O25" s="193"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-    </row>
-    <row r="26" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="242" t="s">
+      <c r="O26" s="193"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+    </row>
+    <row r="27" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="242" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B27" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="131"/>
-      <c r="E26" s="181"/>
-      <c r="F26" s="142" t="s">
+      <c r="C27" s="30"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="181"/>
+      <c r="F27" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="38"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="47" t="s">
+      <c r="G27" s="38"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="K26" s="192"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="47" t="s">
+      <c r="K27" s="192"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="O26" s="192"/>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="131"/>
-    </row>
-    <row r="27" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="242" t="s">
+      <c r="O27" s="192"/>
+      <c r="P27" s="131"/>
+      <c r="Q27" s="131"/>
+    </row>
+    <row r="28" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="242" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B28" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="99" t="s">
+      <c r="C28" s="31"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="53"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="49" t="s">
+      <c r="G28" s="53"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="193"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="49" t="s">
+      <c r="K28" s="193"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="O27" s="193"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-    </row>
-    <row r="28" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="242" t="s">
+      <c r="O28" s="193"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+    </row>
+    <row r="29" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="242" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B29" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="181"/>
-      <c r="F28" s="190" t="s">
+      <c r="C29" s="30"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="47" t="s">
+      <c r="G29" s="38"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="K28" s="192"/>
-      <c r="L28" s="131"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="47" t="s">
+      <c r="K29" s="192"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O28" s="192"/>
-      <c r="P28" s="131"/>
-      <c r="Q28" s="131"/>
-    </row>
-    <row r="29" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="247"/>
-      <c r="B29" s="87" t="s">
+      <c r="O29" s="192"/>
+      <c r="P29" s="131"/>
+      <c r="Q29" s="131"/>
+    </row>
+    <row r="30" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="247"/>
+      <c r="B30" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="187"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="191" t="s">
+      <c r="C30" s="187"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="191" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="184"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="87" t="s">
+      <c r="G30" s="184"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="194"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="87" t="s">
+      <c r="K30" s="194"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="O29" s="194"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-    </row>
-    <row r="30" spans="1:18" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="41"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-    </row>
-    <row r="31" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="244" t="s">
+      <c r="O30" s="194"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
+    </row>
+    <row r="31" spans="1:18" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="41"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+    </row>
+    <row r="32" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="244" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="97" t="s">
+      <c r="B32" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="195"/>
-      <c r="D31" s="195"/>
-      <c r="E31" s="206"/>
-      <c r="F31" s="208" t="s">
+      <c r="C32" s="195"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="206"/>
+      <c r="F32" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="196"/>
-      <c r="H31" s="195"/>
-      <c r="I31" s="206"/>
-      <c r="J31" s="208" t="s">
+      <c r="G32" s="196"/>
+      <c r="H32" s="195"/>
+      <c r="I32" s="206"/>
+      <c r="J32" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="K31" s="196"/>
-      <c r="L31" s="195"/>
-      <c r="M31" s="206"/>
-      <c r="N31" s="203" t="s">
+      <c r="K32" s="196"/>
+      <c r="L32" s="195"/>
+      <c r="M32" s="206"/>
+      <c r="N32" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="O31" s="200"/>
-      <c r="P31" s="197"/>
-      <c r="Q31" s="197"/>
-    </row>
-    <row r="32" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="245" t="s">
+      <c r="O32" s="200"/>
+      <c r="P32" s="197"/>
+      <c r="Q32" s="197"/>
+    </row>
+    <row r="33" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="245" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="240" t="s">
+      <c r="B33" s="240" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="207"/>
-      <c r="F32" s="209" t="s">
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="207"/>
+      <c r="F33" s="209" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="54"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="207"/>
-      <c r="J32" s="209" t="s">
+      <c r="G33" s="54"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="209" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="54"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="207"/>
-      <c r="N32" s="204" t="s">
+      <c r="K33" s="54"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="207"/>
+      <c r="N33" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="O32" s="201"/>
-      <c r="P32" s="198"/>
-      <c r="Q32" s="198"/>
-    </row>
-    <row r="33" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="246" t="s">
+      <c r="O33" s="201"/>
+      <c r="P33" s="198"/>
+      <c r="Q33" s="198"/>
+    </row>
+    <row r="34" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="246" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="175"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="182"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="199"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="182"/>
-      <c r="J33" s="152"/>
-      <c r="K33" s="199"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="106"/>
-      <c r="N33" s="205"/>
-      <c r="O33" s="202"/>
-      <c r="P33" s="109"/>
-      <c r="Q33" s="109"/>
-    </row>
-    <row r="34" spans="1:17" s="5" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="41"/>
-      <c r="B34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-    </row>
-    <row r="35" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="253"/>
-      <c r="B35" s="82" t="s">
+      <c r="B34" s="175"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="199"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="182"/>
+      <c r="J34" s="152"/>
+      <c r="K34" s="199"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="106"/>
+      <c r="N34" s="205"/>
+      <c r="O34" s="202"/>
+      <c r="P34" s="109"/>
+      <c r="Q34" s="109"/>
+    </row>
+    <row r="35" spans="1:17" s="5" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="41"/>
+      <c r="B35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+    </row>
+    <row r="36" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="253"/>
+      <c r="B36" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="185"/>
-      <c r="D35" s="185"/>
-      <c r="E35" s="188"/>
-      <c r="F35" s="82" t="s">
+      <c r="C36" s="185"/>
+      <c r="D36" s="185"/>
+      <c r="E36" s="188"/>
+      <c r="F36" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="186"/>
-      <c r="H35" s="185"/>
-      <c r="I35" s="188"/>
-      <c r="J35" s="82" t="s">
+      <c r="G36" s="186"/>
+      <c r="H36" s="185"/>
+      <c r="I36" s="188"/>
+      <c r="J36" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="K35" s="186"/>
-      <c r="L35" s="185"/>
-      <c r="M35" s="188"/>
-      <c r="N35" s="82" t="s">
+      <c r="K36" s="186"/>
+      <c r="L36" s="185"/>
+      <c r="M36" s="188"/>
+      <c r="N36" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="O35" s="186"/>
-      <c r="P35" s="185"/>
-      <c r="Q35" s="188"/>
-    </row>
-    <row r="36" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="242" t="s">
+      <c r="O36" s="186"/>
+      <c r="P36" s="185"/>
+      <c r="Q36" s="188"/>
+    </row>
+    <row r="37" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="424" t="s">
+      <c r="B37" s="37"/>
+      <c r="C37" s="411" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="425"/>
-      <c r="E36" s="76" t="s">
+      <c r="D37" s="412"/>
+      <c r="E37" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="37"/>
-      <c r="G36" s="424" t="s">
+      <c r="F37" s="37"/>
+      <c r="G37" s="411" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="425"/>
-      <c r="I36" s="76" t="s">
+      <c r="H37" s="412"/>
+      <c r="I37" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="189"/>
-      <c r="K36" s="424" t="s">
+      <c r="J37" s="189"/>
+      <c r="K37" s="411" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="425"/>
-      <c r="M36" s="76" t="s">
+      <c r="L37" s="412"/>
+      <c r="M37" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="N36" s="189"/>
-      <c r="O36" s="426" t="s">
+      <c r="N37" s="189"/>
+      <c r="O37" s="413" t="s">
         <v>20</v>
       </c>
-      <c r="P36" s="427"/>
-      <c r="Q36" s="85" t="s">
+      <c r="P37" s="414"/>
+      <c r="Q37" s="85" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="242" t="s">
+    <row r="38" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="242" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B38" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="33" t="s">
+      <c r="C38" s="30"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="G37" s="192"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="214" t="s">
+      <c r="G38" s="192"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="214" t="s">
         <v>117</v>
       </c>
-      <c r="K37" s="38"/>
-      <c r="L37" s="131"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="215" t="s">
+      <c r="K38" s="38"/>
+      <c r="L38" s="131"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="215" t="s">
         <v>117</v>
       </c>
-      <c r="O37" s="38"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="210"/>
-    </row>
-    <row r="38" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="247" t="s">
+      <c r="O38" s="38"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="210"/>
+    </row>
+    <row r="39" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="247" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="58" t="s">
+      <c r="B39" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="112"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="58" t="s">
+      <c r="C39" s="112"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="G38" s="213"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="100" t="s">
+      <c r="G39" s="213"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="K38" s="211"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="100" t="s">
+      <c r="K39" s="211"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="O38" s="211"/>
-      <c r="P38" s="212"/>
-      <c r="Q38" s="156"/>
-    </row>
-    <row r="39" spans="1:17" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="271"/>
-      <c r="F39" s="24"/>
-      <c r="H39" s="12"/>
-    </row>
-    <row r="40" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="253"/>
-      <c r="B40" s="67" t="s">
+      <c r="O39" s="211"/>
+      <c r="P39" s="212"/>
+      <c r="Q39" s="156"/>
+    </row>
+    <row r="40" spans="1:17" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="271"/>
+      <c r="F40" s="24"/>
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="253"/>
+      <c r="B41" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="67" t="s">
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="216"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="79" t="s">
+      <c r="G41" s="216"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="K40" s="216"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="226" t="s">
+      <c r="K41" s="216"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="226" t="s">
         <v>7</v>
       </c>
-      <c r="O40" s="68"/>
-      <c r="P40" s="65"/>
-      <c r="Q40" s="69"/>
-    </row>
-    <row r="41" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="323" t="s">
+      <c r="O41" s="68"/>
+      <c r="P41" s="65"/>
+      <c r="Q41" s="69"/>
+    </row>
+    <row r="42" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="323" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="230" t="s">
+      <c r="B42" s="230" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="413" t="s">
+      <c r="C42" s="418" t="s">
         <v>114</v>
       </c>
-      <c r="D41" s="414"/>
-      <c r="E41" s="220" t="s">
+      <c r="D42" s="419"/>
+      <c r="E42" s="220" t="s">
         <v>115</v>
       </c>
-      <c r="F41" s="218" t="s">
+      <c r="F42" s="218" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="415" t="s">
+      <c r="G42" s="420" t="s">
         <v>114</v>
       </c>
-      <c r="H41" s="414"/>
-      <c r="I41" s="218" t="s">
+      <c r="H42" s="419"/>
+      <c r="I42" s="218" t="s">
         <v>115</v>
       </c>
-      <c r="J41" s="218" t="s">
+      <c r="J42" s="218" t="s">
         <v>113</v>
       </c>
-      <c r="K41" s="413" t="s">
+      <c r="K42" s="418" t="s">
         <v>114</v>
       </c>
-      <c r="L41" s="414"/>
-      <c r="M41" s="220" t="s">
+      <c r="L42" s="419"/>
+      <c r="M42" s="220" t="s">
         <v>115</v>
       </c>
-      <c r="N41" s="218" t="s">
+      <c r="N42" s="218" t="s">
         <v>113</v>
       </c>
-      <c r="O41" s="415" t="s">
+      <c r="O42" s="420" t="s">
         <v>114</v>
       </c>
-      <c r="P41" s="414"/>
-      <c r="Q41" s="218" t="s">
+      <c r="P42" s="419"/>
+      <c r="Q42" s="218" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="242" t="s">
+    <row r="43" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="242" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="231"/>
-      <c r="C42" s="55" t="s">
+      <c r="B43" s="231"/>
+      <c r="C43" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D43" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E42" s="227" t="s">
+      <c r="E43" s="227" t="s">
         <v>107</v>
       </c>
-      <c r="F42" s="189"/>
-      <c r="G42" s="55" t="s">
+      <c r="F43" s="189"/>
+      <c r="G43" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="H42" s="34" t="s">
+      <c r="H43" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="I42" s="217" t="s">
+      <c r="I43" s="217" t="s">
         <v>107</v>
       </c>
-      <c r="J42" s="225"/>
-      <c r="K42" s="55" t="s">
+      <c r="J43" s="225"/>
+      <c r="K43" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="L42" s="34" t="s">
+      <c r="L43" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="M42" s="34" t="s">
+      <c r="M43" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="N42" s="221"/>
-      <c r="O42" s="55" t="s">
+      <c r="N43" s="221"/>
+      <c r="O43" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="P42" s="34" t="s">
+      <c r="P43" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="Q42" s="217" t="s">
+      <c r="Q43" s="217" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="242" t="s">
+    <row r="44" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="242" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="232" t="s">
+      <c r="B44" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="46"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="222" t="s">
+      <c r="C44" s="46"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="222" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="35"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="154"/>
-      <c r="J43" s="222" t="s">
+      <c r="G44" s="35"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="154"/>
+      <c r="J44" s="222" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="35"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="222" t="s">
+      <c r="K44" s="35"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="222" t="s">
         <v>8</v>
       </c>
-      <c r="O43" s="35"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="154"/>
-    </row>
-    <row r="44" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="242" t="s">
+      <c r="O44" s="35"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="154"/>
+    </row>
+    <row r="45" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="242" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="233" t="s">
+      <c r="B45" s="233" t="s">
         <v>9</v>
-      </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="223" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="36"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="93"/>
-      <c r="J44" s="223" t="s">
-        <v>9</v>
-      </c>
-      <c r="K44" s="36"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="223" t="s">
-        <v>9</v>
-      </c>
-      <c r="O44" s="36"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="93"/>
-    </row>
-    <row r="45" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="242" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="233" t="s">
-        <v>108</v>
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
+      <c r="E45" s="14"/>
       <c r="F45" s="223" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="G45" s="36"/>
       <c r="H45" s="8"/>
       <c r="I45" s="93"/>
       <c r="J45" s="223" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="K45" s="36"/>
       <c r="L45" s="8"/>
       <c r="M45" s="15"/>
       <c r="N45" s="223" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="O45" s="36"/>
       <c r="P45" s="8"/>
       <c r="Q45" s="93"/>
     </row>
-    <row r="46" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="242" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B46" s="233" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C46" s="18"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="223" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G46" s="36"/>
       <c r="H46" s="8"/>
       <c r="I46" s="93"/>
       <c r="J46" s="223" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K46" s="36"/>
       <c r="L46" s="8"/>
       <c r="M46" s="15"/>
       <c r="N46" s="223" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O46" s="36"/>
       <c r="P46" s="8"/>
       <c r="Q46" s="93"/>
     </row>
-    <row r="47" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="242" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B47" s="233" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="223" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G47" s="36"/>
       <c r="H47" s="8"/>
       <c r="I47" s="93"/>
       <c r="J47" s="223" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K47" s="36"/>
       <c r="L47" s="8"/>
       <c r="M47" s="15"/>
       <c r="N47" s="223" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O47" s="36"/>
       <c r="P47" s="8"/>
       <c r="Q47" s="93"/>
     </row>
-    <row r="48" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="324"/>
-      <c r="B48" s="234" t="s">
+    <row r="48" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="242" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="233" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="223" t="s">
+        <v>112</v>
+      </c>
+      <c r="G48" s="36"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="223" t="s">
+        <v>112</v>
+      </c>
+      <c r="K48" s="36"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="223" t="s">
+        <v>112</v>
+      </c>
+      <c r="O48" s="36"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="93"/>
+    </row>
+    <row r="49" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="324"/>
+      <c r="B49" s="234" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="212"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="156"/>
-      <c r="F48" s="224" t="s">
+      <c r="C49" s="212"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="156"/>
+      <c r="F49" s="224" t="s">
         <v>111</v>
       </c>
-      <c r="G48" s="228"/>
-      <c r="H48" s="149"/>
-      <c r="I48" s="156"/>
-      <c r="J48" s="224" t="s">
+      <c r="G49" s="228"/>
+      <c r="H49" s="149"/>
+      <c r="I49" s="156"/>
+      <c r="J49" s="224" t="s">
         <v>111</v>
       </c>
-      <c r="K48" s="229"/>
-      <c r="L48" s="149"/>
-      <c r="M48" s="156"/>
-      <c r="N48" s="224" t="s">
+      <c r="K49" s="229"/>
+      <c r="L49" s="149"/>
+      <c r="M49" s="156"/>
+      <c r="N49" s="224" t="s">
         <v>111</v>
       </c>
-      <c r="O48" s="229"/>
-      <c r="P48" s="149"/>
-      <c r="Q48" s="156"/>
-    </row>
-    <row r="49" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="325"/>
-      <c r="B49" s="341" t="s">
+      <c r="O49" s="229"/>
+      <c r="P49" s="149"/>
+      <c r="Q49" s="156"/>
+    </row>
+    <row r="50" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="325"/>
+      <c r="B50" s="341" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-    </row>
-    <row r="50" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="290" t="s">
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+    </row>
+    <row r="51" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="290" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="79" t="s">
+      <c r="B51" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="79" t="s">
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="G50" s="186"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="81"/>
-      <c r="J50" s="82" t="s">
+      <c r="G51" s="186"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="K50" s="186"/>
-      <c r="L50" s="80"/>
-      <c r="M50" s="81"/>
-      <c r="N50" s="82" t="s">
+      <c r="K51" s="186"/>
+      <c r="L51" s="80"/>
+      <c r="M51" s="81"/>
+      <c r="N51" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="O50" s="235"/>
-      <c r="P50" s="80"/>
-      <c r="Q50" s="81"/>
-    </row>
-    <row r="51" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="242" t="s">
+      <c r="O51" s="235"/>
+      <c r="P51" s="80"/>
+      <c r="Q51" s="81"/>
+    </row>
+    <row r="52" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="242" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="97" t="s">
+      <c r="B52" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="416" t="s">
+      <c r="C52" s="421" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="417"/>
-      <c r="E51" s="418"/>
-      <c r="F51" s="97" t="s">
+      <c r="D52" s="422"/>
+      <c r="E52" s="423"/>
+      <c r="F52" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="G51" s="416" t="s">
+      <c r="G52" s="421" t="s">
         <v>109</v>
       </c>
-      <c r="H51" s="417"/>
-      <c r="I51" s="418"/>
-      <c r="J51" s="97" t="s">
+      <c r="H52" s="422"/>
+      <c r="I52" s="423"/>
+      <c r="J52" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="K51" s="416" t="s">
+      <c r="K52" s="421" t="s">
         <v>109</v>
       </c>
-      <c r="L51" s="417"/>
-      <c r="M51" s="418"/>
-      <c r="N51" s="97" t="s">
+      <c r="L52" s="422"/>
+      <c r="M52" s="423"/>
+      <c r="N52" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="O51" s="416" t="s">
+      <c r="O52" s="421" t="s">
         <v>109</v>
       </c>
-      <c r="P51" s="417"/>
-      <c r="Q51" s="419"/>
-    </row>
-    <row r="52" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="242" t="s">
+      <c r="P52" s="422"/>
+      <c r="Q52" s="424"/>
+    </row>
+    <row r="53" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="242" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="181"/>
-      <c r="F52" s="181"/>
-      <c r="J52" s="181"/>
-      <c r="N52" s="181"/>
-      <c r="Q52" s="131"/>
-    </row>
-    <row r="53" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="242" t="s">
+      <c r="B53" s="181"/>
+      <c r="F53" s="181"/>
+      <c r="J53" s="181"/>
+      <c r="N53" s="181"/>
+      <c r="Q53" s="131"/>
+    </row>
+    <row r="54" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="242" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="236" t="s">
+      <c r="B54" s="236" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="420" t="s">
+      <c r="C54" s="425" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="421"/>
-      <c r="E53" s="422"/>
-      <c r="F53" s="236" t="s">
+      <c r="D54" s="426"/>
+      <c r="E54" s="427"/>
+      <c r="F54" s="236" t="s">
         <v>61</v>
       </c>
-      <c r="G53" s="420" t="s">
+      <c r="G54" s="425" t="s">
         <v>120</v>
       </c>
-      <c r="H53" s="421"/>
-      <c r="I53" s="422"/>
-      <c r="J53" s="236" t="s">
+      <c r="H54" s="426"/>
+      <c r="I54" s="427"/>
+      <c r="J54" s="236" t="s">
         <v>61</v>
       </c>
-      <c r="K53" s="420" t="s">
+      <c r="K54" s="425" t="s">
         <v>120</v>
       </c>
-      <c r="L53" s="421"/>
-      <c r="M53" s="422"/>
-      <c r="N53" s="236" t="s">
+      <c r="L54" s="426"/>
+      <c r="M54" s="427"/>
+      <c r="N54" s="236" t="s">
         <v>61</v>
       </c>
-      <c r="O53" s="420" t="s">
+      <c r="O54" s="425" t="s">
         <v>120</v>
       </c>
-      <c r="P53" s="421"/>
-      <c r="Q53" s="423"/>
-    </row>
-    <row r="54" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="247" t="s">
+      <c r="P54" s="426"/>
+      <c r="Q54" s="428"/>
+    </row>
+    <row r="55" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="247" t="s">
         <v>118</v>
       </c>
-      <c r="B54" s="182"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="182"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="182"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="182"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="109"/>
-    </row>
-    <row r="55" spans="1:17" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="326"/>
-    </row>
-    <row r="56" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="327" t="s">
+      <c r="B55" s="182"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="182"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="182"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="182"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="109"/>
+    </row>
+    <row r="56" spans="1:17" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="326"/>
+    </row>
+    <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="327" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="239" t="s">
+      <c r="B57" s="239" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="410" t="s">
+      <c r="C57" s="415" t="s">
         <v>122</v>
       </c>
-      <c r="D56" s="411"/>
-      <c r="E56" s="412"/>
-      <c r="F56" s="167" t="s">
+      <c r="D57" s="416"/>
+      <c r="E57" s="417"/>
+      <c r="F57" s="167" t="s">
         <v>123</v>
       </c>
-      <c r="G56" s="410" t="s">
+      <c r="G57" s="415" t="s">
         <v>124</v>
       </c>
-      <c r="H56" s="411"/>
-      <c r="I56" s="412"/>
-      <c r="J56" s="170" t="s">
+      <c r="H57" s="416"/>
+      <c r="I57" s="417"/>
+      <c r="J57" s="170" t="s">
         <v>125</v>
       </c>
-      <c r="K56" s="237" t="s">
+      <c r="K57" s="237" t="s">
         <v>126</v>
       </c>
-      <c r="L56" s="238"/>
-      <c r="M56" s="410" t="s">
+      <c r="L57" s="238"/>
+      <c r="M57" s="415" t="s">
         <v>127</v>
       </c>
-      <c r="N56" s="411"/>
-      <c r="O56" s="410" t="s">
+      <c r="N57" s="416"/>
+      <c r="O57" s="415" t="s">
         <v>128</v>
       </c>
-      <c r="P56" s="411"/>
-      <c r="Q56" s="412"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A57" s="242" t="s">
+      <c r="P57" s="416"/>
+      <c r="Q57" s="417"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="242" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="96"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="46"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="46"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="51"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A58" s="242" t="s">
+      <c r="B58" s="96"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="51"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="242" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="131"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="23"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="23"/>
-      <c r="Q58" s="131"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A59" s="242" t="s">
+      <c r="B59" s="131"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="23"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="23"/>
+      <c r="Q59" s="131"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="242" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="52"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="52"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A60" s="242" t="s">
+      <c r="B60" s="52"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="52"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="131"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="23"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="23"/>
-      <c r="Q60" s="131"/>
-    </row>
-    <row r="61" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="247" t="s">
+      <c r="B61" s="131"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="23"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="23"/>
+      <c r="Q61" s="131"/>
+    </row>
+    <row r="62" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="247" t="s">
         <v>36</v>
       </c>
-      <c r="B61" s="59"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="212"/>
-      <c r="F61" s="149"/>
-      <c r="G61" s="108"/>
-      <c r="H61" s="64"/>
-      <c r="I61" s="212"/>
-      <c r="J61" s="149"/>
-      <c r="K61" s="108"/>
-      <c r="L61" s="212"/>
-      <c r="M61" s="108"/>
-      <c r="N61" s="212"/>
-      <c r="O61" s="108"/>
-      <c r="P61" s="64"/>
-      <c r="Q61" s="59"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="212"/>
+      <c r="F62" s="149"/>
+      <c r="G62" s="108"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="212"/>
+      <c r="J62" s="149"/>
+      <c r="K62" s="108"/>
+      <c r="L62" s="212"/>
+      <c r="M62" s="108"/>
+      <c r="N62" s="212"/>
+      <c r="O62" s="108"/>
+      <c r="P62" s="64"/>
+      <c r="Q62" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:Q56"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="O51:Q51"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:Q57"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="O52:Q52"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="O54:Q54"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="O24:P24"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="M4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.59055118110236227" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId2"/>
@@ -8508,40 +8479,40 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" customWidth="1"/>
-    <col min="2" max="2" width="8.26953125" customWidth="1"/>
-    <col min="3" max="4" width="6.26953125" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" customWidth="1"/>
-    <col min="7" max="7" width="5.1796875" customWidth="1"/>
-    <col min="8" max="8" width="7.26953125" customWidth="1"/>
-    <col min="9" max="9" width="5.54296875" customWidth="1"/>
-    <col min="10" max="10" width="5.26953125" customWidth="1"/>
-    <col min="11" max="11" width="7.1796875" customWidth="1"/>
-    <col min="12" max="13" width="6.26953125" customWidth="1"/>
-    <col min="14" max="14" width="5.453125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="13" width="6.28515625" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:14" ht="24.75" x14ac:dyDescent="0.5">
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="23" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="D4" s="2" t="s">
         <v>2</v>
@@ -8555,12 +8526,12 @@
       <c r="M4" s="326"/>
       <c r="N4" s="326"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -8576,169 +8547,169 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="483"/>
-      <c r="B7" s="483"/>
-      <c r="C7" s="483"/>
-      <c r="D7" s="483"/>
-      <c r="E7" s="483"/>
-      <c r="F7" s="483"/>
-      <c r="G7" s="483"/>
-      <c r="H7" s="483"/>
-      <c r="I7" s="483"/>
-      <c r="J7" s="483"/>
-      <c r="K7" s="483"/>
-      <c r="L7" s="483"/>
-      <c r="M7" s="483"/>
-      <c r="N7" s="483"/>
-    </row>
-    <row r="8" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="483"/>
-      <c r="B8" s="483"/>
-      <c r="C8" s="483"/>
-      <c r="D8" s="483"/>
-      <c r="E8" s="483"/>
-      <c r="F8" s="483"/>
-      <c r="G8" s="483"/>
-      <c r="H8" s="483"/>
-      <c r="I8" s="483"/>
-      <c r="J8" s="483"/>
-      <c r="K8" s="483"/>
-      <c r="L8" s="483"/>
-      <c r="M8" s="483"/>
-      <c r="N8" s="483"/>
-    </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="483"/>
-      <c r="B9" s="483"/>
-      <c r="C9" s="483"/>
-      <c r="D9" s="483"/>
-      <c r="E9" s="483"/>
-      <c r="F9" s="483"/>
-      <c r="G9" s="483"/>
-      <c r="H9" s="483"/>
-      <c r="I9" s="483"/>
-      <c r="J9" s="483"/>
-      <c r="K9" s="483"/>
-      <c r="L9" s="483"/>
-      <c r="M9" s="483"/>
-      <c r="N9" s="483"/>
-    </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="483"/>
-      <c r="B10" s="483"/>
-      <c r="C10" s="483"/>
-      <c r="D10" s="483"/>
-      <c r="E10" s="483"/>
-      <c r="F10" s="483"/>
-      <c r="G10" s="483"/>
-      <c r="H10" s="483"/>
-      <c r="I10" s="483"/>
-      <c r="J10" s="483"/>
-      <c r="K10" s="483"/>
-      <c r="L10" s="483"/>
-      <c r="M10" s="483"/>
-      <c r="N10" s="483"/>
-    </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="483"/>
-      <c r="B11" s="483"/>
-      <c r="C11" s="483"/>
-      <c r="D11" s="483"/>
-      <c r="E11" s="483"/>
-      <c r="F11" s="483"/>
-      <c r="G11" s="483"/>
-      <c r="H11" s="483"/>
-      <c r="I11" s="483"/>
-      <c r="J11" s="483"/>
-      <c r="K11" s="483"/>
-      <c r="L11" s="483"/>
-      <c r="M11" s="483"/>
-      <c r="N11" s="483"/>
-    </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="483"/>
-      <c r="B12" s="483"/>
-      <c r="C12" s="483"/>
-      <c r="D12" s="483"/>
-      <c r="E12" s="483"/>
-      <c r="F12" s="483"/>
-      <c r="G12" s="483"/>
-      <c r="H12" s="483"/>
-      <c r="I12" s="483"/>
-      <c r="J12" s="483"/>
-      <c r="K12" s="483"/>
-      <c r="L12" s="483"/>
-      <c r="M12" s="483"/>
-      <c r="N12" s="483"/>
-    </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="483"/>
-      <c r="B13" s="483"/>
-      <c r="C13" s="483"/>
-      <c r="D13" s="483"/>
-      <c r="E13" s="483"/>
-      <c r="F13" s="483"/>
-      <c r="G13" s="483"/>
-      <c r="H13" s="483"/>
-      <c r="I13" s="483"/>
-      <c r="J13" s="483"/>
-      <c r="K13" s="483"/>
-      <c r="L13" s="483"/>
-      <c r="M13" s="483"/>
-      <c r="N13" s="483"/>
-    </row>
-    <row r="14" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="401" t="s">
+    <row r="7" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="404"/>
+      <c r="B7" s="404"/>
+      <c r="C7" s="404"/>
+      <c r="D7" s="404"/>
+      <c r="E7" s="404"/>
+      <c r="F7" s="404"/>
+      <c r="G7" s="404"/>
+      <c r="H7" s="404"/>
+      <c r="I7" s="404"/>
+      <c r="J7" s="404"/>
+      <c r="K7" s="404"/>
+      <c r="L7" s="404"/>
+      <c r="M7" s="404"/>
+      <c r="N7" s="404"/>
+    </row>
+    <row r="8" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="404"/>
+      <c r="B8" s="404"/>
+      <c r="C8" s="404"/>
+      <c r="D8" s="404"/>
+      <c r="E8" s="404"/>
+      <c r="F8" s="404"/>
+      <c r="G8" s="404"/>
+      <c r="H8" s="404"/>
+      <c r="I8" s="404"/>
+      <c r="J8" s="404"/>
+      <c r="K8" s="404"/>
+      <c r="L8" s="404"/>
+      <c r="M8" s="404"/>
+      <c r="N8" s="404"/>
+    </row>
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="404"/>
+      <c r="B9" s="404"/>
+      <c r="C9" s="404"/>
+      <c r="D9" s="404"/>
+      <c r="E9" s="404"/>
+      <c r="F9" s="404"/>
+      <c r="G9" s="404"/>
+      <c r="H9" s="404"/>
+      <c r="I9" s="404"/>
+      <c r="J9" s="404"/>
+      <c r="K9" s="404"/>
+      <c r="L9" s="404"/>
+      <c r="M9" s="404"/>
+      <c r="N9" s="404"/>
+    </row>
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="404"/>
+      <c r="B10" s="404"/>
+      <c r="C10" s="404"/>
+      <c r="D10" s="404"/>
+      <c r="E10" s="404"/>
+      <c r="F10" s="404"/>
+      <c r="G10" s="404"/>
+      <c r="H10" s="404"/>
+      <c r="I10" s="404"/>
+      <c r="J10" s="404"/>
+      <c r="K10" s="404"/>
+      <c r="L10" s="404"/>
+      <c r="M10" s="404"/>
+      <c r="N10" s="404"/>
+    </row>
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="404"/>
+      <c r="B11" s="404"/>
+      <c r="C11" s="404"/>
+      <c r="D11" s="404"/>
+      <c r="E11" s="404"/>
+      <c r="F11" s="404"/>
+      <c r="G11" s="404"/>
+      <c r="H11" s="404"/>
+      <c r="I11" s="404"/>
+      <c r="J11" s="404"/>
+      <c r="K11" s="404"/>
+      <c r="L11" s="404"/>
+      <c r="M11" s="404"/>
+      <c r="N11" s="404"/>
+    </row>
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="404"/>
+      <c r="B12" s="404"/>
+      <c r="C12" s="404"/>
+      <c r="D12" s="404"/>
+      <c r="E12" s="404"/>
+      <c r="F12" s="404"/>
+      <c r="G12" s="404"/>
+      <c r="H12" s="404"/>
+      <c r="I12" s="404"/>
+      <c r="J12" s="404"/>
+      <c r="K12" s="404"/>
+      <c r="L12" s="404"/>
+      <c r="M12" s="404"/>
+      <c r="N12" s="404"/>
+    </row>
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="404"/>
+      <c r="B13" s="404"/>
+      <c r="C13" s="404"/>
+      <c r="D13" s="404"/>
+      <c r="E13" s="404"/>
+      <c r="F13" s="404"/>
+      <c r="G13" s="404"/>
+      <c r="H13" s="404"/>
+      <c r="I13" s="404"/>
+      <c r="J13" s="404"/>
+      <c r="K13" s="404"/>
+      <c r="L13" s="404"/>
+      <c r="M13" s="404"/>
+      <c r="N13" s="404"/>
+    </row>
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="404"/>
+      <c r="B14" s="404"/>
+      <c r="C14" s="404"/>
+      <c r="D14" s="404"/>
+      <c r="E14" s="404"/>
+      <c r="F14" s="404"/>
+      <c r="G14" s="404"/>
+      <c r="H14" s="404"/>
+      <c r="I14" s="404"/>
+      <c r="J14" s="404"/>
+      <c r="K14" s="404"/>
+      <c r="L14" s="404"/>
+      <c r="M14" s="404"/>
+      <c r="N14" s="404"/>
+    </row>
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="404"/>
+      <c r="B15" s="404"/>
+      <c r="C15" s="404"/>
+      <c r="D15" s="404"/>
+      <c r="E15" s="404"/>
+      <c r="F15" s="404"/>
+      <c r="G15" s="404"/>
+      <c r="H15" s="404"/>
+      <c r="I15" s="404"/>
+      <c r="J15" s="404"/>
+      <c r="K15" s="404"/>
+      <c r="L15" s="404"/>
+      <c r="M15" s="404"/>
+      <c r="N15" s="404"/>
+    </row>
+    <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="401" t="s">
         <v>235</v>
       </c>
-      <c r="B14" s="396"/>
-      <c r="C14" s="396"/>
-      <c r="D14" s="396"/>
-      <c r="E14" s="396"/>
-      <c r="F14" s="396"/>
-      <c r="G14" s="396"/>
-      <c r="H14" s="396"/>
-      <c r="I14" s="396"/>
-      <c r="J14" s="396"/>
-      <c r="K14" s="396"/>
-      <c r="L14" s="396"/>
-      <c r="M14" s="396"/>
-      <c r="N14" s="396"/>
-    </row>
-    <row r="15" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="397"/>
-      <c r="B15" s="397"/>
-      <c r="C15" s="397"/>
-      <c r="D15" s="397"/>
-      <c r="E15" s="397"/>
-      <c r="F15" s="397"/>
-      <c r="G15" s="397"/>
-      <c r="H15" s="397"/>
-      <c r="I15" s="397"/>
-      <c r="J15" s="397"/>
-      <c r="K15" s="397"/>
-      <c r="L15" s="397"/>
-      <c r="M15" s="397"/>
-      <c r="N15" s="397"/>
-    </row>
-    <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="397"/>
-      <c r="B16" s="397"/>
-      <c r="C16" s="397"/>
-      <c r="D16" s="397"/>
-      <c r="E16" s="397"/>
-      <c r="F16" s="397"/>
-      <c r="G16" s="397"/>
-      <c r="H16" s="397"/>
-      <c r="I16" s="397"/>
-      <c r="J16" s="397"/>
-      <c r="K16" s="397"/>
-      <c r="L16" s="397"/>
-      <c r="M16" s="397"/>
-      <c r="N16" s="397"/>
-    </row>
-    <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="396"/>
+      <c r="C16" s="396"/>
+      <c r="D16" s="396"/>
+      <c r="E16" s="396"/>
+      <c r="F16" s="396"/>
+      <c r="G16" s="396"/>
+      <c r="H16" s="396"/>
+      <c r="I16" s="396"/>
+      <c r="J16" s="396"/>
+      <c r="K16" s="396"/>
+      <c r="L16" s="396"/>
+      <c r="M16" s="396"/>
+      <c r="N16" s="396"/>
+    </row>
+    <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="397"/>
       <c r="B17" s="397"/>
       <c r="C17" s="397"/>
@@ -8754,10 +8725,8 @@
       <c r="M17" s="397"/>
       <c r="N17" s="397"/>
     </row>
-    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="397" t="s">
-        <v>5</v>
-      </c>
+    <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="397"/>
       <c r="B18" s="397"/>
       <c r="C18" s="397"/>
       <c r="D18" s="397"/>
@@ -8772,19 +8741,15 @@
       <c r="M18" s="397"/>
       <c r="N18" s="397"/>
     </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="397" t="s">
-        <v>49</v>
-      </c>
+    <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="397"/>
       <c r="B19" s="397"/>
       <c r="C19" s="397"/>
       <c r="D19" s="397"/>
       <c r="E19" s="397"/>
       <c r="F19" s="397"/>
       <c r="G19" s="397"/>
-      <c r="H19" s="397" t="s">
-        <v>154</v>
-      </c>
+      <c r="H19" s="397"/>
       <c r="I19" s="397"/>
       <c r="J19" s="397"/>
       <c r="K19" s="397"/>
@@ -8792,9 +8757,9 @@
       <c r="M19" s="397"/>
       <c r="N19" s="397"/>
     </row>
-    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="397" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B20" s="397"/>
       <c r="C20" s="397"/>
@@ -8810,15 +8775,19 @@
       <c r="M20" s="397"/>
       <c r="N20" s="397"/>
     </row>
-    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="397"/>
+    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="397" t="s">
+        <v>49</v>
+      </c>
       <c r="B21" s="397"/>
       <c r="C21" s="397"/>
       <c r="D21" s="397"/>
       <c r="E21" s="397"/>
       <c r="F21" s="397"/>
       <c r="G21" s="397"/>
-      <c r="H21" s="397"/>
+      <c r="H21" s="397" t="s">
+        <v>154</v>
+      </c>
       <c r="I21" s="397"/>
       <c r="J21" s="397"/>
       <c r="K21" s="397"/>
@@ -8826,9 +8795,9 @@
       <c r="M21" s="397"/>
       <c r="N21" s="397"/>
     </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="397" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B22" s="397"/>
       <c r="C22" s="397"/>
@@ -8844,81 +8813,88 @@
       <c r="M22" s="397"/>
       <c r="N22" s="397"/>
     </row>
-    <row r="23" spans="1:14" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="430" t="s">
+    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="397"/>
+      <c r="B23" s="397"/>
+      <c r="C23" s="397"/>
+      <c r="D23" s="397"/>
+      <c r="E23" s="397"/>
+      <c r="F23" s="397"/>
+      <c r="G23" s="397"/>
+      <c r="H23" s="397"/>
+      <c r="I23" s="397"/>
+      <c r="J23" s="397"/>
+      <c r="K23" s="397"/>
+      <c r="L23" s="397"/>
+      <c r="M23" s="397"/>
+      <c r="N23" s="397"/>
+    </row>
+    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="397" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="397"/>
+      <c r="C24" s="397"/>
+      <c r="D24" s="397"/>
+      <c r="E24" s="397"/>
+      <c r="F24" s="397"/>
+      <c r="G24" s="397"/>
+      <c r="H24" s="397"/>
+      <c r="I24" s="397"/>
+      <c r="J24" s="397"/>
+      <c r="K24" s="397"/>
+      <c r="L24" s="397"/>
+      <c r="M24" s="397"/>
+      <c r="N24" s="397"/>
+    </row>
+    <row r="25" spans="1:14" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="431" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="431"/>
-      <c r="C24" s="263"/>
-      <c r="D24" s="264"/>
-      <c r="E24" s="147" t="s">
+      <c r="B26" s="432"/>
+      <c r="C26" s="263"/>
+      <c r="D26" s="264"/>
+      <c r="E26" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="147"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="387"/>
-      <c r="I24" s="386"/>
-      <c r="J24" s="387"/>
-      <c r="K24" s="386"/>
-      <c r="L24" s="387"/>
-      <c r="M24" s="386"/>
-      <c r="N24" s="148"/>
-    </row>
-    <row r="25" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="428" t="s">
+      <c r="F26" s="147"/>
+      <c r="G26" s="176"/>
+      <c r="H26" s="387"/>
+      <c r="I26" s="386"/>
+      <c r="J26" s="387"/>
+      <c r="K26" s="386"/>
+      <c r="L26" s="387"/>
+      <c r="M26" s="386"/>
+      <c r="N26" s="148"/>
+    </row>
+    <row r="27" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="429" t="s">
         <v>236</v>
       </c>
-      <c r="B25" s="429"/>
-      <c r="C25" s="258" t="s">
+      <c r="B27" s="430"/>
+      <c r="C27" s="258" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="51"/>
-    </row>
-    <row r="26" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="428" t="s">
+      <c r="D27" s="42"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="51"/>
+    </row>
+    <row r="28" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="429" t="s">
         <v>237</v>
       </c>
-      <c r="B26" s="429"/>
-      <c r="C26" s="259" t="s">
+      <c r="B28" s="430"/>
+      <c r="C28" s="259" t="s">
         <v>131</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="18"/>
-      <c r="K26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="131"/>
-    </row>
-    <row r="27" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="260" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="52"/>
-    </row>
-    <row r="28" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="259" t="s">
-        <v>133</v>
       </c>
       <c r="D28" s="22"/>
       <c r="G28" s="15"/>
@@ -8927,9 +8903,9 @@
       <c r="M28" s="23"/>
       <c r="N28" s="131"/>
     </row>
-    <row r="29" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="260" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="17"/>
@@ -8943,873 +8919,900 @@
       <c r="M29" s="15"/>
       <c r="N29" s="52"/>
     </row>
-    <row r="30" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="388"/>
-      <c r="C30" s="260" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+    <row r="30" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="259" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="22"/>
       <c r="G30" s="15"/>
       <c r="H30" s="18"/>
       <c r="K30" s="23"/>
       <c r="M30" s="23"/>
       <c r="N30" s="131"/>
     </row>
-    <row r="31" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="259" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="F31" s="20"/>
+    <row r="31" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="260" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="40"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
       <c r="G31" s="23"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="385"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="385"/>
-      <c r="N31" s="134"/>
-    </row>
-    <row r="32" spans="1:14" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="349" t="s">
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="52"/>
+    </row>
+    <row r="32" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="388"/>
+      <c r="C32" s="260" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="18"/>
+      <c r="K32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="131"/>
+    </row>
+    <row r="33" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="259" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="385"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="385"/>
+      <c r="N33" s="134"/>
+    </row>
+    <row r="34" spans="1:14" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="349" t="s">
         <v>137</v>
       </c>
-      <c r="D32" s="264"/>
-      <c r="E32" s="264"/>
-      <c r="F32" s="264"/>
-      <c r="G32" s="386"/>
-      <c r="H32" s="387"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="386"/>
-      <c r="L32" s="387"/>
-      <c r="M32" s="386"/>
-      <c r="N32" s="148"/>
-    </row>
-    <row r="33" spans="1:13" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="265"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:13" s="29" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="432" t="s">
+      <c r="D34" s="264"/>
+      <c r="E34" s="264"/>
+      <c r="F34" s="264"/>
+      <c r="G34" s="386"/>
+      <c r="H34" s="387"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="386"/>
+      <c r="L34" s="387"/>
+      <c r="M34" s="386"/>
+      <c r="N34" s="148"/>
+    </row>
+    <row r="35" spans="1:14" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="265"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:14" s="29" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="433" t="s">
         <v>148</v>
       </c>
-      <c r="B34" s="433"/>
-      <c r="C34" s="433"/>
-      <c r="D34" s="433"/>
-      <c r="E34" s="433"/>
-      <c r="F34" s="434"/>
-      <c r="H34" s="432" t="s">
+      <c r="B36" s="434"/>
+      <c r="C36" s="434"/>
+      <c r="D36" s="434"/>
+      <c r="E36" s="434"/>
+      <c r="F36" s="435"/>
+      <c r="H36" s="433" t="s">
         <v>149</v>
       </c>
-      <c r="I34" s="433"/>
-      <c r="J34" s="433"/>
-      <c r="K34" s="433"/>
-      <c r="L34" s="433"/>
-      <c r="M34" s="434"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="30"/>
-      <c r="F35" s="131"/>
-      <c r="H35" s="30"/>
-      <c r="M35" s="131"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="30"/>
-      <c r="F36" s="131"/>
-      <c r="H36" s="30"/>
-      <c r="M36" s="131"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I36" s="434"/>
+      <c r="J36" s="434"/>
+      <c r="K36" s="434"/>
+      <c r="L36" s="434"/>
+      <c r="M36" s="435"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="30"/>
       <c r="F37" s="131"/>
       <c r="H37" s="30"/>
       <c r="M37" s="131"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="30"/>
       <c r="F38" s="131"/>
       <c r="H38" s="30"/>
       <c r="M38" s="131"/>
     </row>
-    <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="126"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="109"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="109"/>
-    </row>
-    <row r="40" spans="1:13" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="7"/>
-    </row>
-    <row r="41" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="253" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="30"/>
+      <c r="F39" s="131"/>
+      <c r="H39" s="30"/>
+      <c r="M39" s="131"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="30"/>
+      <c r="F40" s="131"/>
+      <c r="H40" s="30"/>
+      <c r="M40" s="131"/>
+    </row>
+    <row r="41" spans="1:14" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="126"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="109"/>
+      <c r="H41" s="126"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="109"/>
+    </row>
+    <row r="42" spans="1:14" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:14" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="253" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="270" t="s">
+      <c r="B43" s="270" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="321" t="s">
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="321" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="148"/>
-      <c r="H41" s="338" t="s">
+      <c r="F43" s="10"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="338" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="339" t="s">
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="339" t="s">
         <v>7</v>
       </c>
-      <c r="L41" s="80"/>
-      <c r="M41" s="81"/>
-    </row>
-    <row r="42" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="242" t="s">
+      <c r="L43" s="80"/>
+      <c r="M43" s="81"/>
+    </row>
+    <row r="44" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="242" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="289"/>
-      <c r="C42" s="331" t="s">
+      <c r="B44" s="289"/>
+      <c r="C44" s="331" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="336" t="s">
+      <c r="D44" s="336" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="335"/>
-      <c r="F42" s="331" t="s">
+      <c r="E44" s="335"/>
+      <c r="F44" s="331" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="336" t="s">
+      <c r="G44" s="336" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="335"/>
-      <c r="I42" s="331" t="s">
+      <c r="H44" s="335"/>
+      <c r="I44" s="331" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="336" t="s">
+      <c r="J44" s="336" t="s">
         <v>24</v>
       </c>
-      <c r="K42" s="337"/>
-      <c r="L42" s="331" t="s">
+      <c r="K44" s="337"/>
+      <c r="L44" s="331" t="s">
         <v>20</v>
       </c>
-      <c r="M42" s="336" t="s">
+      <c r="M44" s="336" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="242" t="s">
+    <row r="45" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="242" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B45" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="75"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="28" t="s">
+      <c r="C45" s="75"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="75"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="28" t="s">
+      <c r="F45" s="75"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="75"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="98" t="s">
+      <c r="I45" s="75"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-    </row>
-    <row r="44" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="242" t="s">
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+    </row>
+    <row r="46" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="242" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="288" t="s">
+      <c r="B46" s="288" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="73"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="49" t="s">
+      <c r="C46" s="73"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="73"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="49" t="s">
+      <c r="F46" s="73"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I44" s="73"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="99" t="s">
+      <c r="I46" s="73"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="L44" s="52"/>
-      <c r="M44" s="52"/>
-    </row>
-    <row r="45" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="242" t="s">
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+    </row>
+    <row r="47" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="242" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="288" t="s">
+      <c r="B47" s="288" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="49" t="s">
+      <c r="C47" s="73"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="73"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="49" t="s">
+      <c r="F47" s="73"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="I45" s="73"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="99" t="s">
+      <c r="I47" s="73"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-    </row>
-    <row r="46" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="282" t="s">
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+    </row>
+    <row r="48" spans="1:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="282" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="183" t="s">
+      <c r="B48" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="106"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="100" t="s">
+      <c r="C48" s="106"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="106"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="100" t="s">
+      <c r="F48" s="106"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="106"/>
-      <c r="J46" s="64"/>
-      <c r="K46" s="100" t="s">
+      <c r="I48" s="106"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="L46" s="59"/>
-      <c r="M46" s="59"/>
-    </row>
-    <row r="47" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="126"/>
-      <c r="B47" s="109"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-    </row>
-    <row r="48" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="283"/>
-      <c r="B48" s="340" t="s">
+      <c r="L48" s="59"/>
+      <c r="M48" s="59"/>
+    </row>
+    <row r="49" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="126"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+    </row>
+    <row r="50" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="283"/>
+      <c r="B50" s="340" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="321" t="s">
+      <c r="E50" s="321" t="s">
         <v>7</v>
       </c>
-      <c r="H48" s="321" t="s">
+      <c r="H50" s="321" t="s">
         <v>7</v>
       </c>
-      <c r="J48" s="148"/>
-      <c r="K48" s="271" t="s">
+      <c r="J50" s="148"/>
+      <c r="K50" s="271" t="s">
         <v>7</v>
       </c>
-      <c r="L48" s="27"/>
-      <c r="M48" s="266"/>
-    </row>
-    <row r="49" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="284"/>
-      <c r="B49" s="269" t="s">
+      <c r="L50" s="27"/>
+      <c r="M50" s="266"/>
+    </row>
+    <row r="51" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="284"/>
+      <c r="B51" s="269" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="268"/>
-      <c r="D49" s="269" t="s">
+      <c r="C51" s="268"/>
+      <c r="D51" s="269" t="s">
         <v>57</v>
       </c>
-      <c r="E49" s="270"/>
-      <c r="F49" s="268" t="s">
+      <c r="E51" s="270"/>
+      <c r="F51" s="268" t="s">
         <v>58</v>
       </c>
-      <c r="G49" s="268"/>
-      <c r="H49" s="270" t="s">
+      <c r="G51" s="268"/>
+      <c r="H51" s="270" t="s">
         <v>59</v>
       </c>
-      <c r="I49" s="268"/>
-      <c r="J49" s="268" t="s">
+      <c r="I51" s="268"/>
+      <c r="J51" s="268" t="s">
         <v>60</v>
       </c>
-      <c r="K49" s="270"/>
-      <c r="L49" s="121"/>
-      <c r="M49" s="122"/>
-    </row>
-    <row r="50" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="285"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="331" t="s">
+      <c r="K51" s="270"/>
+      <c r="L51" s="121"/>
+      <c r="M51" s="122"/>
+    </row>
+    <row r="52" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="285"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="331" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="331" t="s">
+      <c r="D52" s="331" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="332"/>
-      <c r="F50" s="334" t="s">
+      <c r="E52" s="332"/>
+      <c r="F52" s="334" t="s">
         <v>20</v>
       </c>
-      <c r="G50" s="333" t="s">
+      <c r="G52" s="333" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="110"/>
-      <c r="I50" s="334" t="s">
+      <c r="H52" s="110"/>
+      <c r="I52" s="334" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="334" t="s">
+      <c r="J52" s="334" t="s">
         <v>24</v>
       </c>
-      <c r="K50" s="105"/>
-      <c r="L50" s="333" t="s">
+      <c r="K52" s="105"/>
+      <c r="L52" s="333" t="s">
         <v>20</v>
       </c>
-      <c r="M50" s="334" t="s">
+      <c r="M52" s="334" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="286" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="75"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="98" t="s">
-        <v>50</v>
-      </c>
-      <c r="F51" s="88"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
-      <c r="K51" s="98" t="s">
-        <v>50</v>
-      </c>
-      <c r="L51" s="88"/>
-      <c r="M51" s="88"/>
-    </row>
-    <row r="52" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="286" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="73"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="F52" s="73"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="I52" s="73"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="73"/>
-    </row>
-    <row r="53" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="286" t="s">
         <v>20</v>
       </c>
-      <c r="B53" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="73"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="99" t="s">
-        <v>52</v>
-      </c>
-      <c r="F53" s="73"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="99" t="s">
-        <v>52</v>
-      </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="73"/>
-    </row>
-    <row r="54" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="75"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="F53" s="88"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I53" s="88"/>
+      <c r="J53" s="88"/>
+      <c r="K53" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="L53" s="88"/>
+      <c r="M53" s="88"/>
+    </row>
+    <row r="54" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="286" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B54" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C54" s="73"/>
       <c r="D54" s="17"/>
       <c r="E54" s="99" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F54" s="73"/>
       <c r="G54" s="52"/>
       <c r="H54" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I54" s="73"/>
       <c r="J54" s="73"/>
       <c r="K54" s="99" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L54" s="17"/>
       <c r="M54" s="73"/>
     </row>
-    <row r="55" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="286" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B55" s="49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C55" s="73"/>
       <c r="D55" s="17"/>
       <c r="E55" s="99" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F55" s="73"/>
       <c r="G55" s="52"/>
       <c r="H55" s="49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I55" s="73"/>
       <c r="J55" s="73"/>
       <c r="K55" s="99" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L55" s="17"/>
       <c r="M55" s="73"/>
     </row>
-    <row r="56" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="284"/>
+    <row r="56" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="286" t="s">
+        <v>15</v>
+      </c>
       <c r="B56" s="49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C56" s="73"/>
       <c r="D56" s="17"/>
       <c r="E56" s="99" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F56" s="73"/>
       <c r="G56" s="52"/>
       <c r="H56" s="49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I56" s="73"/>
       <c r="J56" s="73"/>
       <c r="K56" s="99" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L56" s="17"/>
       <c r="M56" s="73"/>
     </row>
-    <row r="57" spans="1:13" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="287"/>
-      <c r="B57" s="272" t="s">
+    <row r="57" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="286" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="73"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57" s="73"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="73"/>
+    </row>
+    <row r="58" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="284"/>
+      <c r="B58" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="73"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" s="73"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="I58" s="73"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="73"/>
+    </row>
+    <row r="59" spans="1:13" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="287"/>
+      <c r="B59" s="272" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="106"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="100" t="s">
+      <c r="C59" s="106"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="F57" s="106"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="267" t="s">
+      <c r="F59" s="106"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="267" t="s">
         <v>10</v>
       </c>
-      <c r="I57" s="106"/>
-      <c r="J57" s="106"/>
-      <c r="K57" s="100" t="s">
+      <c r="I59" s="106"/>
+      <c r="J59" s="106"/>
+      <c r="K59" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="L57" s="20"/>
-      <c r="M57" s="106"/>
-    </row>
-    <row r="58" spans="1:13" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="273"/>
-      <c r="D58" s="273"/>
-      <c r="H58" s="273"/>
-      <c r="J58" s="273"/>
-      <c r="L58" s="273"/>
-    </row>
-    <row r="59" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="241"/>
-      <c r="B59" s="321" t="s">
+      <c r="L59" s="20"/>
+      <c r="M59" s="106"/>
+    </row>
+    <row r="60" spans="1:13" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="273"/>
+      <c r="D60" s="273"/>
+      <c r="H60" s="273"/>
+      <c r="J60" s="273"/>
+      <c r="L60" s="273"/>
+    </row>
+    <row r="61" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="241"/>
+      <c r="B61" s="321" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="148"/>
-      <c r="E59" s="321" t="s">
+      <c r="C61" s="10"/>
+      <c r="D61" s="148"/>
+      <c r="E61" s="321" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="321" t="s">
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="321" t="s">
         <v>7</v>
       </c>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="321" t="s">
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="321" t="s">
         <v>7</v>
       </c>
-      <c r="L59" s="80"/>
-      <c r="M59" s="81"/>
-    </row>
-    <row r="60" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="242" t="s">
+      <c r="L61" s="80"/>
+      <c r="M61" s="81"/>
+    </row>
+    <row r="62" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="390"/>
-      <c r="C60" s="394" t="s">
+      <c r="B62" s="390"/>
+      <c r="C62" s="394" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="395" t="s">
+      <c r="D62" s="395" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="332"/>
-      <c r="F60" s="333" t="s">
+      <c r="E62" s="332"/>
+      <c r="F62" s="333" t="s">
         <v>20</v>
       </c>
-      <c r="G60" s="334" t="s">
+      <c r="G62" s="334" t="s">
         <v>24</v>
       </c>
-      <c r="H60" s="335"/>
-      <c r="I60" s="334" t="s">
+      <c r="H62" s="335"/>
+      <c r="I62" s="334" t="s">
         <v>20</v>
       </c>
-      <c r="J60" s="333" t="s">
+      <c r="J62" s="333" t="s">
         <v>24</v>
       </c>
-      <c r="K60" s="332"/>
-      <c r="L60" s="331" t="s">
+      <c r="K62" s="332"/>
+      <c r="L62" s="331" t="s">
         <v>20</v>
       </c>
-      <c r="M60" s="334" t="s">
+      <c r="M62" s="334" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="242" t="s">
+    <row r="63" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="242" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="391" t="s">
+      <c r="B63" s="391" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="51"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="98" t="s">
+      <c r="C63" s="51"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="F61" s="274"/>
-      <c r="G61" s="88"/>
-      <c r="H61" s="28" t="s">
+      <c r="F63" s="274"/>
+      <c r="G63" s="88"/>
+      <c r="H63" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I61" s="88"/>
-      <c r="J61" s="274"/>
-      <c r="K61" s="98" t="s">
+      <c r="I63" s="88"/>
+      <c r="J63" s="274"/>
+      <c r="K63" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="L61" s="19"/>
-      <c r="M61" s="88"/>
-    </row>
-    <row r="62" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="242" t="s">
+      <c r="L63" s="19"/>
+      <c r="M63" s="88"/>
+    </row>
+    <row r="64" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="242" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="392" t="s">
+      <c r="B64" s="392" t="s">
         <v>9</v>
-      </c>
-      <c r="C62" s="52"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="17"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="I62" s="73"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="73"/>
-    </row>
-    <row r="63" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="242" t="s">
-        <v>17</v>
-      </c>
-      <c r="B63" s="392" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="52"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="17"/>
-      <c r="G63" s="73"/>
-      <c r="H63" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63" s="73"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="73"/>
-    </row>
-    <row r="64" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="242" t="s">
-        <v>18</v>
-      </c>
-      <c r="B64" s="392" t="s">
-        <v>11</v>
       </c>
       <c r="C64" s="52"/>
       <c r="D64" s="17"/>
       <c r="E64" s="99" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F64" s="17"/>
       <c r="G64" s="73"/>
       <c r="H64" s="49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I64" s="73"/>
       <c r="J64" s="17"/>
       <c r="K64" s="99" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L64" s="17"/>
       <c r="M64" s="73"/>
     </row>
-    <row r="65" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="242" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B65" s="392" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C65" s="52"/>
       <c r="D65" s="17"/>
       <c r="E65" s="99" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F65" s="17"/>
       <c r="G65" s="73"/>
       <c r="H65" s="49" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I65" s="73"/>
       <c r="J65" s="17"/>
       <c r="K65" s="99" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L65" s="17"/>
       <c r="M65" s="73"/>
     </row>
-    <row r="66" spans="1:13" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="243"/>
-      <c r="B66" s="393" t="s">
+    <row r="66" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="242" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="392" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="52"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="17"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" s="73"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="73"/>
+    </row>
+    <row r="67" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="242" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="392" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="52"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="17"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="73"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="73"/>
+    </row>
+    <row r="68" spans="1:13" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="243"/>
+      <c r="B68" s="393" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="70"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="191" t="s">
+      <c r="C68" s="70"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="191" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="389"/>
-      <c r="G66" s="74"/>
-      <c r="H66" s="87" t="s">
+      <c r="F68" s="389"/>
+      <c r="G68" s="74"/>
+      <c r="H68" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I66" s="74"/>
-      <c r="J66" s="389"/>
-      <c r="K66" s="191" t="s">
+      <c r="I68" s="74"/>
+      <c r="J68" s="389"/>
+      <c r="K68" s="191" t="s">
         <v>13</v>
       </c>
-      <c r="L66" s="389"/>
-      <c r="M66" s="74"/>
-    </row>
-    <row r="67" spans="1:13" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="279"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="278"/>
-      <c r="G67" s="275"/>
-      <c r="H67" s="277"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="275"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="278"/>
-      <c r="M67" s="26"/>
-    </row>
-    <row r="68" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="290" t="s">
+      <c r="L68" s="389"/>
+      <c r="M68" s="74"/>
+    </row>
+    <row r="69" spans="1:13" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="279"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="278"/>
+      <c r="G69" s="275"/>
+      <c r="H69" s="277"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="275"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="278"/>
+      <c r="M69" s="26"/>
+    </row>
+    <row r="70" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="290" t="s">
         <v>151</v>
       </c>
-      <c r="B68" s="97" t="s">
+      <c r="B70" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="105"/>
-      <c r="D68" s="105"/>
-      <c r="E68" s="97" t="s">
+      <c r="C70" s="105"/>
+      <c r="D70" s="105"/>
+      <c r="E70" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F68" s="57"/>
-      <c r="G68" s="276"/>
-      <c r="H68" s="97" t="s">
+      <c r="F70" s="57"/>
+      <c r="G70" s="276"/>
+      <c r="H70" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="I68" s="105"/>
-      <c r="J68" s="276"/>
-      <c r="K68" s="97" t="s">
+      <c r="I70" s="105"/>
+      <c r="J70" s="276"/>
+      <c r="K70" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="L68" s="57"/>
-      <c r="M68" s="105"/>
-    </row>
-    <row r="69" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="242" t="s">
+      <c r="L70" s="57"/>
+      <c r="M70" s="105"/>
+    </row>
+    <row r="71" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="242" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="28" t="s">
+      <c r="B71" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C69" s="75"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="98" t="s">
+      <c r="C71" s="75"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="51"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="98" t="s">
+      <c r="F71" s="51"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="I69" s="51"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="99" t="s">
+      <c r="I71" s="51"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="L69" s="51"/>
-      <c r="M69" s="51"/>
-    </row>
-    <row r="70" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="242" t="s">
+      <c r="L71" s="51"/>
+      <c r="M71" s="51"/>
+    </row>
+    <row r="72" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="242" t="s">
         <v>20</v>
       </c>
-      <c r="B70" s="49" t="s">
+      <c r="B72" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C70" s="73"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="99" t="s">
+      <c r="C72" s="73"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="99" t="s">
+      <c r="F72" s="52"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="I70" s="52"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="99" t="s">
+      <c r="I72" s="52"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="L70" s="52"/>
-      <c r="M70" s="52"/>
-    </row>
-    <row r="71" spans="1:13" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="247" t="s">
+      <c r="L72" s="52"/>
+      <c r="M72" s="52"/>
+    </row>
+    <row r="73" spans="1:13" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="247" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="58" t="s">
+      <c r="B73" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="106"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="100" t="s">
+      <c r="C73" s="106"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="F71" s="59"/>
-      <c r="G71" s="64"/>
-      <c r="H71" s="100" t="s">
+      <c r="F73" s="59"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="I71" s="59"/>
-      <c r="J71" s="64"/>
-      <c r="K71" s="100" t="s">
+      <c r="I73" s="59"/>
+      <c r="J73" s="64"/>
+      <c r="K73" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="L71" s="59"/>
-      <c r="M71" s="59"/>
-    </row>
-    <row r="79" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="L73" s="59"/>
+      <c r="M73" s="59"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="A36:F36"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="I4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.78740157480314965" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId2"/>
@@ -9818,33 +9821,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:P64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="7.54296875" customWidth="1"/>
-    <col min="3" max="3" width="6.54296875" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="7.1796875" customWidth="1"/>
-    <col min="6" max="6" width="6.26953125" customWidth="1"/>
-    <col min="7" max="7" width="6.54296875" customWidth="1"/>
-    <col min="8" max="8" width="4.81640625" customWidth="1"/>
-    <col min="9" max="9" width="2.7265625" customWidth="1"/>
-    <col min="10" max="10" width="5.7265625" customWidth="1"/>
-    <col min="11" max="11" width="5.1796875" customWidth="1"/>
-    <col min="12" max="12" width="8.81640625" customWidth="1"/>
-    <col min="13" max="13" width="3.453125" customWidth="1"/>
-    <col min="14" max="15" width="3.81640625" customWidth="1"/>
-    <col min="16" max="16" width="4.1796875" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" customWidth="1"/>
+    <col min="14" max="15" width="3.85546875" customWidth="1"/>
+    <col min="16" max="16" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="290" t="s">
         <v>47</v>
       </c>
@@ -9872,7 +9875,7 @@
       <c r="O1" s="273"/>
       <c r="P1" s="292"/>
     </row>
-    <row r="2" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="242" t="s">
         <v>35</v>
       </c>
@@ -9899,16 +9902,16 @@
         <v>46</v>
       </c>
       <c r="L2" s="356"/>
-      <c r="M2" s="460" t="s">
+      <c r="M2" s="448" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="462"/>
-      <c r="O2" s="460" t="s">
+      <c r="N2" s="450"/>
+      <c r="O2" s="448" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="461"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P2" s="449"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="242" t="s">
         <v>18</v>
       </c>
@@ -9922,10 +9925,10 @@
       </c>
       <c r="F3" s="88"/>
       <c r="G3" s="51"/>
-      <c r="H3" s="442" t="s">
+      <c r="H3" s="457" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="442"/>
+      <c r="I3" s="457"/>
       <c r="J3" s="88"/>
       <c r="K3" s="88"/>
       <c r="L3" s="293" t="s">
@@ -9936,7 +9939,7 @@
       <c r="O3" s="274"/>
       <c r="P3" s="96"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="242" t="s">
         <v>46</v>
       </c>
@@ -9950,10 +9953,10 @@
       </c>
       <c r="F4" s="73"/>
       <c r="G4" s="52"/>
-      <c r="H4" s="443" t="s">
+      <c r="H4" s="458" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="443"/>
+      <c r="I4" s="458"/>
       <c r="J4" s="73"/>
       <c r="K4" s="17"/>
       <c r="L4" s="294" t="s">
@@ -9964,7 +9967,7 @@
       <c r="O4" s="20"/>
       <c r="P4" s="134"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="242" t="s">
         <v>16</v>
       </c>
@@ -9978,10 +9981,10 @@
       </c>
       <c r="F5" s="73"/>
       <c r="G5" s="52"/>
-      <c r="H5" s="442" t="s">
+      <c r="H5" s="457" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="442"/>
+      <c r="I5" s="457"/>
       <c r="J5" s="73"/>
       <c r="K5" s="17"/>
       <c r="L5" s="293" t="s">
@@ -9992,7 +9995,7 @@
       <c r="O5" s="17"/>
       <c r="P5" s="52"/>
     </row>
-    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="247" t="s">
         <v>37</v>
       </c>
@@ -10006,10 +10009,10 @@
       </c>
       <c r="F6" s="106"/>
       <c r="G6" s="59"/>
-      <c r="H6" s="444" t="s">
+      <c r="H6" s="459" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="444"/>
+      <c r="I6" s="459"/>
       <c r="J6" s="106"/>
       <c r="K6" s="64"/>
       <c r="L6" s="295" t="s">
@@ -10020,7 +10023,7 @@
       <c r="O6" s="64"/>
       <c r="P6" s="59"/>
     </row>
-    <row r="7" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="45" t="s">
         <v>84</v>
@@ -10031,41 +10034,41 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="248"/>
       <c r="B8" s="304"/>
-      <c r="C8" s="453" t="s">
+      <c r="C8" s="436" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="447"/>
-      <c r="E8" s="448"/>
-      <c r="F8" s="447" t="s">
+      <c r="D8" s="444"/>
+      <c r="E8" s="437"/>
+      <c r="F8" s="444" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="447"/>
-      <c r="H8" s="447"/>
+      <c r="G8" s="444"/>
+      <c r="H8" s="444"/>
       <c r="I8" s="203"/>
-      <c r="J8" s="453" t="s">
+      <c r="J8" s="436" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="448"/>
+      <c r="K8" s="437"/>
       <c r="L8" s="169" t="s">
         <v>81</v>
       </c>
-      <c r="M8" s="458" t="s">
+      <c r="M8" s="468" t="s">
         <v>76</v>
       </c>
-      <c r="N8" s="459"/>
-      <c r="O8" s="465" t="s">
+      <c r="N8" s="454"/>
+      <c r="O8" s="453" t="s">
         <v>78</v>
       </c>
-      <c r="P8" s="459"/>
-    </row>
-    <row r="9" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="470" t="s">
+      <c r="P8" s="454"/>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="442" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="472"/>
+      <c r="B9" s="445"/>
       <c r="C9" s="310" t="s">
         <v>62</v>
       </c>
@@ -10081,23 +10084,23 @@
       <c r="G9" s="311" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="445" t="s">
+      <c r="H9" s="460" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="446"/>
+      <c r="I9" s="461"/>
       <c r="J9" s="307"/>
       <c r="K9" s="309"/>
       <c r="L9" s="308"/>
-      <c r="M9" s="463" t="s">
+      <c r="M9" s="451" t="s">
         <v>77</v>
       </c>
-      <c r="N9" s="464"/>
-      <c r="O9" s="466" t="s">
+      <c r="N9" s="452"/>
+      <c r="O9" s="455" t="s">
         <v>79</v>
       </c>
-      <c r="P9" s="467"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P9" s="456"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="301"/>
       <c r="B10" s="5"/>
       <c r="C10" s="153"/>
@@ -10114,7 +10117,7 @@
       <c r="O10" s="274"/>
       <c r="P10" s="96"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="302"/>
       <c r="B11" s="305"/>
       <c r="C11" s="92"/>
@@ -10132,7 +10135,7 @@
       <c r="O11" s="17"/>
       <c r="P11" s="52"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="301"/>
       <c r="B12" s="5"/>
       <c r="C12" s="92"/>
@@ -10148,7 +10151,7 @@
       <c r="N12" s="131"/>
       <c r="P12" s="131"/>
     </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="303"/>
       <c r="B13" s="306"/>
       <c r="C13" s="155"/>
@@ -10166,71 +10169,71 @@
       <c r="O13" s="64"/>
       <c r="P13" s="59"/>
     </row>
-    <row r="14" spans="1:16" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="405"/>
-      <c r="B15" s="473"/>
-      <c r="C15" s="453" t="s">
+    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="406"/>
+      <c r="B15" s="446"/>
+      <c r="C15" s="436" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="448"/>
-      <c r="E15" s="447" t="s">
+      <c r="D15" s="437"/>
+      <c r="E15" s="444" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="447"/>
-      <c r="G15" s="453" t="s">
+      <c r="F15" s="444"/>
+      <c r="G15" s="436" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="448"/>
-      <c r="I15" s="447" t="s">
+      <c r="H15" s="437"/>
+      <c r="I15" s="444" t="s">
         <v>138</v>
       </c>
-      <c r="J15" s="447"/>
-      <c r="K15" s="447"/>
-      <c r="L15" s="453" t="s">
+      <c r="J15" s="444"/>
+      <c r="K15" s="444"/>
+      <c r="L15" s="436" t="s">
         <v>67</v>
       </c>
-      <c r="M15" s="448"/>
-      <c r="N15" s="447" t="s">
+      <c r="M15" s="437"/>
+      <c r="N15" s="444" t="s">
         <v>68</v>
       </c>
-      <c r="O15" s="447"/>
-      <c r="P15" s="448"/>
-    </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="470" t="s">
+      <c r="O15" s="444"/>
+      <c r="P15" s="437"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="442" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="471"/>
-      <c r="C16" s="454" t="s">
+      <c r="B16" s="443"/>
+      <c r="C16" s="440" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="455"/>
-      <c r="E16" s="474" t="s">
+      <c r="D16" s="441"/>
+      <c r="E16" s="447" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="474"/>
-      <c r="G16" s="454" t="s">
+      <c r="F16" s="447"/>
+      <c r="G16" s="440" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="455"/>
+      <c r="H16" s="441"/>
       <c r="I16" s="315"/>
       <c r="J16" s="316"/>
       <c r="K16" s="317"/>
-      <c r="L16" s="454" t="s">
+      <c r="L16" s="440" t="s">
         <v>152</v>
       </c>
-      <c r="M16" s="455"/>
-      <c r="N16" s="449" t="s">
+      <c r="M16" s="441"/>
+      <c r="N16" s="462" t="s">
         <v>153</v>
       </c>
-      <c r="O16" s="449"/>
-      <c r="P16" s="450"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="O16" s="462"/>
+      <c r="P16" s="463"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="301"/>
       <c r="B17" s="314"/>
       <c r="C17" s="30"/>
@@ -10243,7 +10246,7 @@
       <c r="O17" s="273"/>
       <c r="P17" s="292"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
       <c r="B18" s="17"/>
       <c r="C18" s="31"/>
@@ -10261,7 +10264,7 @@
       <c r="O18" s="17"/>
       <c r="P18" s="52"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="131"/>
@@ -10272,7 +10275,7 @@
       <c r="N19" s="30"/>
       <c r="P19" s="131"/>
     </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="112"/>
       <c r="B20" s="64"/>
       <c r="C20" s="112"/>
@@ -10290,28 +10293,28 @@
       <c r="O20" s="64"/>
       <c r="P20" s="59"/>
     </row>
-    <row r="21" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L21" s="456" t="s">
+    <row r="21" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="466" t="s">
         <v>69</v>
       </c>
-      <c r="M21" s="457"/>
-      <c r="N21" s="406" t="s">
+      <c r="M21" s="467"/>
+      <c r="N21" s="407" t="s">
         <v>70</v>
       </c>
-      <c r="O21" s="451"/>
-      <c r="P21" s="452"/>
-    </row>
-    <row r="22" spans="1:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O21" s="464"/>
+      <c r="P21" s="465"/>
+    </row>
+    <row r="22" spans="1:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="326" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" s="437" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="471" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="438"/>
-      <c r="C23" s="438"/>
+      <c r="B23" s="472"/>
+      <c r="C23" s="472"/>
       <c r="D23" s="318"/>
       <c r="E23" s="96"/>
       <c r="F23" s="110" t="s">
@@ -10330,12 +10333,12 @@
       <c r="O23" s="318"/>
       <c r="P23" s="96"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="435" t="s">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="469" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="436"/>
-      <c r="C24" s="436"/>
+      <c r="B24" s="470"/>
+      <c r="C24" s="470"/>
       <c r="E24" s="131"/>
       <c r="F24" s="260" t="s">
         <v>143</v>
@@ -10350,12 +10353,12 @@
       </c>
       <c r="P24" s="131"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="439" t="s">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="473" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="440"/>
-      <c r="C25" s="440"/>
+      <c r="B25" s="474"/>
+      <c r="C25" s="474"/>
       <c r="D25" s="17"/>
       <c r="E25" s="52"/>
       <c r="F25" s="258" t="s">
@@ -10374,7 +10377,7 @@
       <c r="O25" s="17"/>
       <c r="P25" s="52"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="260" t="s">
         <v>139</v>
       </c>
@@ -10395,7 +10398,7 @@
       <c r="P26" s="131"/>
       <c r="R26" s="5"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="260" t="s">
         <v>140</v>
       </c>
@@ -10414,7 +10417,7 @@
       <c r="O27" s="17"/>
       <c r="P27" s="52"/>
     </row>
-    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="261" t="s">
         <v>141</v>
       </c>
@@ -10426,9 +10429,9 @@
         <v>94</v>
       </c>
       <c r="G28" s="9"/>
-      <c r="H28" s="441"/>
-      <c r="I28" s="441"/>
-      <c r="J28" s="441"/>
+      <c r="H28" s="475"/>
+      <c r="I28" s="475"/>
+      <c r="J28" s="475"/>
       <c r="K28" s="182"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
@@ -10436,19 +10439,19 @@
       <c r="O28" s="9"/>
       <c r="P28" s="109"/>
     </row>
-    <row r="29" spans="1:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>98</v>
       </c>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
     </row>
-    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="468" t="s">
+    <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="438" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="469"/>
+      <c r="B31" s="439"/>
       <c r="C31" s="263"/>
       <c r="D31" s="264"/>
       <c r="E31" s="264"/>
@@ -10464,13 +10467,13 @@
       <c r="O31" s="264"/>
       <c r="P31" s="171"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
       <c r="B32" s="131"/>
       <c r="C32" s="30"/>
       <c r="P32" s="131"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="B33" s="52"/>
       <c r="C33" s="31"/>
@@ -10488,13 +10491,13 @@
       <c r="O33" s="17"/>
       <c r="P33" s="52"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="30"/>
       <c r="B34" s="131"/>
       <c r="C34" s="30"/>
       <c r="P34" s="131"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="31"/>
       <c r="B35" s="52"/>
       <c r="C35" s="31"/>
@@ -10512,13 +10515,13 @@
       <c r="O35" s="17"/>
       <c r="P35" s="52"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="30"/>
       <c r="B36" s="131"/>
       <c r="C36" s="30"/>
       <c r="P36" s="131"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
       <c r="B37" s="52"/>
       <c r="C37" s="31"/>
@@ -10536,13 +10539,13 @@
       <c r="O37" s="17"/>
       <c r="P37" s="52"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="30"/>
       <c r="B38" s="131"/>
       <c r="C38" s="30"/>
       <c r="P38" s="131"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="31"/>
       <c r="B39" s="52"/>
       <c r="C39" s="31"/>
@@ -10560,13 +10563,13 @@
       <c r="O39" s="17"/>
       <c r="P39" s="52"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="30"/>
       <c r="B40" s="131"/>
       <c r="C40" s="30"/>
       <c r="P40" s="131"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="31"/>
       <c r="B41" s="52"/>
       <c r="C41" s="31"/>
@@ -10584,7 +10587,7 @@
       <c r="O41" s="17"/>
       <c r="P41" s="52"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
       <c r="B42" s="52"/>
       <c r="C42" s="31"/>
@@ -10602,13 +10605,13 @@
       <c r="O42" s="17"/>
       <c r="P42" s="52"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
       <c r="B43" s="131"/>
       <c r="C43" s="30"/>
       <c r="P43" s="131"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
       <c r="B44" s="52"/>
       <c r="C44" s="31"/>
@@ -10626,13 +10629,13 @@
       <c r="O44" s="17"/>
       <c r="P44" s="52"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="131"/>
       <c r="C45" s="30"/>
       <c r="P45" s="131"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="31"/>
       <c r="B46" s="52"/>
       <c r="C46" s="31"/>
@@ -10650,13 +10653,13 @@
       <c r="O46" s="17"/>
       <c r="P46" s="52"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="131"/>
       <c r="C47" s="30"/>
       <c r="P47" s="131"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="319"/>
       <c r="B48" s="320"/>
       <c r="C48" s="319"/>
@@ -10674,7 +10677,7 @@
       <c r="O48" s="43"/>
       <c r="P48" s="320"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="111"/>
       <c r="B49" s="51"/>
       <c r="C49" s="111"/>
@@ -10692,13 +10695,13 @@
       <c r="O49" s="19"/>
       <c r="P49" s="51"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
       <c r="B50" s="131"/>
       <c r="C50" s="30"/>
       <c r="P50" s="131"/>
     </row>
-    <row r="51" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="112"/>
       <c r="B51" s="59"/>
       <c r="C51" s="112"/>
@@ -10716,7 +10719,7 @@
       <c r="O51" s="64"/>
       <c r="P51" s="59"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>238</v>
       </c>
@@ -10736,7 +10739,7 @@
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>239</v>
       </c>
@@ -10756,7 +10759,7 @@
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>241</v>
       </c>
@@ -10775,7 +10778,7 @@
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>240</v>
       </c>
@@ -10794,7 +10797,7 @@
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -10811,7 +10814,7 @@
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -10828,7 +10831,7 @@
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -10845,7 +10848,7 @@
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -10862,76 +10865,66 @@
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A62" s="404" t="s">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="405" t="s">
         <v>99</v>
       </c>
-      <c r="B62" s="404"/>
-      <c r="C62" s="404"/>
-      <c r="D62" s="404" t="s">
+      <c r="B62" s="405"/>
+      <c r="C62" s="405"/>
+      <c r="D62" s="405" t="s">
         <v>101</v>
       </c>
-      <c r="E62" s="404"/>
-      <c r="F62" s="404"/>
-      <c r="G62" s="404"/>
-      <c r="H62" s="404" t="s">
+      <c r="E62" s="405"/>
+      <c r="F62" s="405"/>
+      <c r="G62" s="405"/>
+      <c r="H62" s="405" t="s">
         <v>102</v>
       </c>
-      <c r="I62" s="404"/>
-      <c r="J62" s="404"/>
-      <c r="K62" s="404"/>
-      <c r="L62" s="404" t="s">
+      <c r="I62" s="405"/>
+      <c r="J62" s="405"/>
+      <c r="K62" s="405"/>
+      <c r="L62" s="405" t="s">
         <v>102</v>
       </c>
-      <c r="M62" s="404"/>
-      <c r="N62" s="404"/>
-      <c r="O62" s="404"/>
-      <c r="P62" s="404"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M62" s="405"/>
+      <c r="N62" s="405"/>
+      <c r="O62" s="405"/>
+      <c r="P62" s="405"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B63" s="22" t="s">
         <v>100</v>
       </c>
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
-      <c r="E63" s="404" t="s">
+      <c r="E63" s="405" t="s">
         <v>100</v>
       </c>
-      <c r="F63" s="404"/>
-      <c r="H63" s="404" t="s">
+      <c r="F63" s="405"/>
+      <c r="H63" s="405" t="s">
         <v>103</v>
       </c>
-      <c r="I63" s="404"/>
-      <c r="J63" s="404"/>
-      <c r="K63" s="404"/>
-      <c r="L63" s="404" t="s">
+      <c r="I63" s="405"/>
+      <c r="J63" s="405"/>
+      <c r="K63" s="405"/>
+      <c r="L63" s="405" t="s">
         <v>103</v>
       </c>
-      <c r="M63" s="404"/>
-      <c r="N63" s="404"/>
-      <c r="O63" s="404"/>
-      <c r="P63" s="404"/>
+      <c r="M63" s="405"/>
+      <c r="N63" s="405"/>
+      <c r="O63" s="405"/>
+      <c r="P63" s="405"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="E63:F63"/>
     <mergeCell ref="L62:P62"/>
     <mergeCell ref="L63:P63"/>
     <mergeCell ref="H62:K62"/>
@@ -10948,14 +10941,24 @@
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="M8:N8"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
@@ -10963,38 +10966,38 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:K71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="8.26953125" customWidth="1"/>
-    <col min="12" max="12" width="7.7265625" customWidth="1"/>
+    <col min="1" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="373"/>
       <c r="B1" s="291"/>
-      <c r="C1" s="477" t="s">
+      <c r="C1" s="480" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="477"/>
+      <c r="D1" s="480"/>
       <c r="E1" s="291"/>
       <c r="F1" s="374"/>
-      <c r="H1" s="475" t="s">
+      <c r="H1" s="478" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="476"/>
-      <c r="J1" s="475" t="s">
+      <c r="I1" s="479"/>
+      <c r="J1" s="478" t="s">
         <v>201</v>
       </c>
-      <c r="K1" s="476"/>
-    </row>
-    <row r="2" spans="1:11" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="479"/>
+    </row>
+    <row r="2" spans="1:11" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="362" t="s">
         <v>8</v>
       </c>
@@ -11026,7 +11029,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="357" t="s">
         <v>157</v>
       </c>
@@ -11058,28 +11061,28 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:11" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:11" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="373"/>
       <c r="B5" s="291" t="s">
         <v>165</v>
       </c>
       <c r="C5" s="291"/>
       <c r="D5" s="374"/>
-      <c r="F5" s="475" t="s">
+      <c r="F5" s="478" t="s">
         <v>174</v>
       </c>
-      <c r="G5" s="476"/>
-      <c r="H5" s="475" t="s">
+      <c r="G5" s="479"/>
+      <c r="H5" s="478" t="s">
         <v>176</v>
       </c>
-      <c r="I5" s="476"/>
-      <c r="J5" s="475" t="s">
+      <c r="I5" s="479"/>
+      <c r="J5" s="478" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="476"/>
-    </row>
-    <row r="6" spans="1:11" s="326" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K5" s="479"/>
+    </row>
+    <row r="6" spans="1:11" s="326" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="367" t="s">
         <v>8</v>
       </c>
@@ -11111,7 +11114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" s="7" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="357" t="s">
         <v>164</v>
       </c>
@@ -11143,27 +11146,27 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:11" s="326" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="478" t="s">
+    <row r="8" spans="1:11" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:11" s="326" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="476" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="479"/>
-      <c r="D9" s="480" t="s">
+      <c r="B9" s="477"/>
+      <c r="D9" s="481" t="s">
         <v>204</v>
       </c>
-      <c r="E9" s="481"/>
-      <c r="F9" s="482"/>
-      <c r="H9" s="478" t="s">
+      <c r="E9" s="482"/>
+      <c r="F9" s="483"/>
+      <c r="H9" s="476" t="s">
         <v>203</v>
       </c>
-      <c r="I9" s="479"/>
-      <c r="J9" s="478" t="s">
+      <c r="I9" s="477"/>
+      <c r="J9" s="476" t="s">
         <v>202</v>
       </c>
-      <c r="K9" s="479"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K9" s="477"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="367" t="s">
         <v>10</v>
       </c>
@@ -11188,7 +11191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="7" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" s="7" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="357" t="s">
         <v>161</v>
       </c>
@@ -11214,11 +11217,11 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="7" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" s="7" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="330"/>
       <c r="D12" s="379"/>
     </row>
-    <row r="13" spans="1:11" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="373"/>
       <c r="B13" s="291"/>
       <c r="C13" s="291" t="s">
@@ -11227,12 +11230,12 @@
       <c r="D13" s="291"/>
       <c r="E13" s="291"/>
       <c r="F13" s="374"/>
-      <c r="H13" s="475" t="s">
+      <c r="H13" s="478" t="s">
         <v>182</v>
       </c>
-      <c r="I13" s="476"/>
-    </row>
-    <row r="14" spans="1:11" s="326" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I13" s="479"/>
+    </row>
+    <row r="14" spans="1:11" s="326" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="367" t="s">
         <v>8</v>
       </c>
@@ -11258,7 +11261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="357" t="s">
         <v>181</v>
       </c>
@@ -11284,24 +11287,24 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="1:10" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:10" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="373"/>
-      <c r="B17" s="477" t="s">
+      <c r="B17" s="480" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="477"/>
+      <c r="C17" s="480"/>
       <c r="D17" s="374"/>
-      <c r="F17" s="475" t="s">
+      <c r="F17" s="478" t="s">
         <v>190</v>
       </c>
-      <c r="G17" s="476"/>
+      <c r="G17" s="479"/>
       <c r="I17" s="380" t="s">
         <v>206</v>
       </c>
       <c r="J17" s="381"/>
     </row>
-    <row r="18" spans="1:10" s="326" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" s="326" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="367" t="s">
         <v>207</v>
       </c>
@@ -11327,7 +11330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="357" t="s">
         <v>172</v>
       </c>
@@ -11353,22 +11356,22 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="21" spans="1:10" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="475" t="s">
+    <row r="20" spans="1:10" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:10" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="478" t="s">
         <v>191</v>
       </c>
-      <c r="B21" s="476"/>
-      <c r="C21" s="475" t="s">
+      <c r="B21" s="479"/>
+      <c r="C21" s="478" t="s">
         <v>176</v>
       </c>
-      <c r="D21" s="476"/>
-      <c r="E21" s="475" t="s">
+      <c r="D21" s="479"/>
+      <c r="E21" s="478" t="s">
         <v>178</v>
       </c>
-      <c r="F21" s="476"/>
-    </row>
-    <row r="22" spans="1:10" s="326" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="479"/>
+    </row>
+    <row r="22" spans="1:10" s="326" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="367" t="s">
         <v>8</v>
       </c>
@@ -11388,7 +11391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="357" t="s">
         <v>192</v>
       </c>
@@ -11406,20 +11409,20 @@
       </c>
       <c r="F23" s="358"/>
     </row>
-    <row r="24" spans="1:10" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="1:10" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:10" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="373"/>
-      <c r="B25" s="477" t="s">
+      <c r="B25" s="480" t="s">
         <v>193</v>
       </c>
-      <c r="C25" s="477"/>
+      <c r="C25" s="480"/>
       <c r="D25" s="374"/>
-      <c r="F25" s="475" t="s">
+      <c r="F25" s="478" t="s">
         <v>205</v>
       </c>
-      <c r="G25" s="476"/>
-    </row>
-    <row r="26" spans="1:10" s="326" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G25" s="479"/>
+    </row>
+    <row r="26" spans="1:10" s="326" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="367" t="s">
         <v>8</v>
       </c>
@@ -11439,7 +11442,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="357" t="s">
         <v>196</v>
       </c>
@@ -11459,13 +11462,13 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="326" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="383" t="s">
         <v>155</v>
       </c>
@@ -11473,8 +11476,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="383" t="s">
         <v>42</v>
       </c>
@@ -11485,12 +11488,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="383" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="384" t="s">
         <v>213</v>
       </c>
@@ -11503,7 +11506,7 @@
       </c>
       <c r="I41" s="326"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="384" t="s">
         <v>9</v>
       </c>
@@ -11516,13 +11519,13 @@
       </c>
       <c r="I42" s="326"/>
     </row>
-    <row r="44" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="383" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="384" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" s="384" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="384" t="s">
         <v>215</v>
       </c>
@@ -11530,7 +11533,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="384" t="s">
         <v>217</v>
       </c>
@@ -11539,20 +11542,20 @@
       </c>
       <c r="F47" s="384"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E48" s="384" t="s">
         <v>218</v>
       </c>
       <c r="F48" s="384"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E49" s="384" t="s">
         <v>219</v>
       </c>
       <c r="F49" s="384"/>
     </row>
-    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="52" spans="1:7" s="22" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:7" s="22" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="383" t="s">
         <v>220</v>
       </c>
@@ -11566,8 +11569,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="383" t="s">
         <v>113</v>
       </c>
@@ -11575,8 +11578,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="383" t="s">
         <v>205</v>
       </c>
@@ -11584,19 +11587,19 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="382" t="s">
         <v>227</v>
       </c>
       <c r="B69" s="148"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>230</v>
       </c>
@@ -11604,7 +11607,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>228</v>
       </c>
@@ -11614,6 +11617,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="H1:I1"/>
@@ -11627,11 +11635,6 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
